--- a/OPTIMIZATION/optimization jan 2024 to aug 2025 -gbpusd and eurusd-1h.xlsx
+++ b/OPTIMIZATION/optimization jan 2024 to aug 2025 -gbpusd and eurusd-1h.xlsx
@@ -8,21 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\BOTS\REHOBOAM\OPTIMIZATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2FECC086-2964-4CA8-9F11-76673F2E7DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AC04A6-9148-484E-B90F-03B2B4496699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{2112105C-1B99-4D4F-85A4-5682E24BD8D2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tester Optimizator Results" sheetId="1" r:id="rId1"/>
+    <sheet name="PREDICTOR" sheetId="4" r:id="rId1"/>
+    <sheet name="Tester Optimizator Results" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">'Tester Optimizator Results'!$M$3</definedName>
-    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'Tester Optimizator Results'!#REF!</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>Pass</t>
   </si>
@@ -69,19 +71,142 @@
     <t>Trades</t>
   </si>
   <si>
-    <t>EntryZScore</t>
-  </si>
-  <si>
-    <t>StopLossPercent</t>
-  </si>
-  <si>
     <t>RESULT</t>
   </si>
   <si>
-    <t>corr(entryzscore, RESULT)</t>
+    <t>X1</t>
   </si>
   <si>
-    <t>CORRELATION(STOPLOSSPERCENT, RESULT)</t>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>(X1)2</t>
+  </si>
+  <si>
+    <t>X1*X2</t>
+  </si>
+  <si>
+    <t>(X2)2</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>EntryZScore (X1)</t>
+  </si>
+  <si>
+    <t>StopLossPercent (X2)</t>
+  </si>
+  <si>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>Regression Statistics</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Lower 95.0%</t>
+  </si>
+  <si>
+    <t>Upper 95.0%</t>
+  </si>
+  <si>
+    <t>X Variable 1</t>
+  </si>
+  <si>
+    <t>X Variable 2</t>
+  </si>
+  <si>
+    <t>X Variable 3</t>
+  </si>
+  <si>
+    <t>X Variable 4</t>
+  </si>
+  <si>
+    <t>X Variable 5</t>
+  </si>
+  <si>
+    <t>PREDICTOR</t>
+  </si>
+  <si>
+    <t>EntryZscore</t>
+  </si>
+  <si>
+    <t>Stop loss percent</t>
+  </si>
+  <si>
+    <t>PROFIT</t>
+  </si>
+  <si>
+    <t>PREDICTION TABLE</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>entryZscore</t>
+  </si>
+  <si>
+    <t>StopLoss percent</t>
   </si>
 </sst>
 </file>
@@ -89,9 +214,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,8 +351,52 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -407,8 +576,20 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -523,6 +704,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -568,12 +780,33 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -619,7 +852,17 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -657,6 +900,26 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -969,11 +1232,1632 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8D3A376-5C30-45C0-8A76-1B2BAD76ABFC}">
+  <dimension ref="A1:I132"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0.2585173770811891</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="9">
+        <v>6.683123425293773E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="9">
+        <v>3.3973179120998918E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="9">
+        <v>5413.3769607743543</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="10">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="9">
+        <v>5</v>
+      </c>
+      <c r="C12" s="9">
+        <v>298019150.70274067</v>
+      </c>
+      <c r="D12" s="9">
+        <v>59603830.140548132</v>
+      </c>
+      <c r="E12" s="9">
+        <v>2.0339376139148353</v>
+      </c>
+      <c r="F12" s="9">
+        <v>7.7395373962280301E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="9">
+        <v>142</v>
+      </c>
+      <c r="C13" s="9">
+        <v>4161260316.9608469</v>
+      </c>
+      <c r="D13" s="9">
+        <v>29304650.119442582</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="10">
+        <v>147</v>
+      </c>
+      <c r="C14" s="10">
+        <v>4459279467.6635876</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="9">
+        <v>-1747.5042403536625</v>
+      </c>
+      <c r="C17" s="9">
+        <v>1929.223133204943</v>
+      </c>
+      <c r="D17" s="9">
+        <v>-0.90580721860337743</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0.3665722893580392</v>
+      </c>
+      <c r="F17" s="9">
+        <v>-5561.2137392440209</v>
+      </c>
+      <c r="G17" s="9">
+        <v>2066.2052585366964</v>
+      </c>
+      <c r="H17" s="9">
+        <v>-5561.2137392440209</v>
+      </c>
+      <c r="I17" s="9">
+        <v>2066.2052585366964</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="9">
+        <v>1886.9718673468146</v>
+      </c>
+      <c r="C18" s="9">
+        <v>1183.4309246223781</v>
+      </c>
+      <c r="D18" s="9">
+        <v>1.5944926130343686</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0.11304910383526086</v>
+      </c>
+      <c r="F18" s="9">
+        <v>-452.44739465180055</v>
+      </c>
+      <c r="G18" s="9">
+        <v>4226.3911293454294</v>
+      </c>
+      <c r="H18" s="9">
+        <v>-452.44739465180055</v>
+      </c>
+      <c r="I18" s="9">
+        <v>4226.3911293454294</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="9">
+        <v>4155.5956874526391</v>
+      </c>
+      <c r="C19" s="9">
+        <v>2181.7269398833596</v>
+      </c>
+      <c r="D19" s="9">
+        <v>1.904727677641826</v>
+      </c>
+      <c r="E19" s="9">
+        <v>5.8837602271058102E-2</v>
+      </c>
+      <c r="F19" s="9">
+        <v>-157.2661124137594</v>
+      </c>
+      <c r="G19" s="9">
+        <v>8468.4574873190377</v>
+      </c>
+      <c r="H19" s="9">
+        <v>-157.2661124137594</v>
+      </c>
+      <c r="I19" s="9">
+        <v>8468.4574873190377</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="9">
+        <v>-439.75003891519623</v>
+      </c>
+      <c r="C20" s="9">
+        <v>216.89429973812076</v>
+      </c>
+      <c r="D20" s="9">
+        <v>-2.0274854592589691</v>
+      </c>
+      <c r="E20" s="9">
+        <v>4.4483556194091528E-2</v>
+      </c>
+      <c r="F20" s="9">
+        <v>-868.50907509381364</v>
+      </c>
+      <c r="G20" s="9">
+        <v>-10.991002736578821</v>
+      </c>
+      <c r="H20" s="9">
+        <v>-868.50907509381364</v>
+      </c>
+      <c r="I20" s="9">
+        <v>-10.991002736578821</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="9">
+        <v>-1026.6474885853411</v>
+      </c>
+      <c r="C21" s="9">
+        <v>669.59847197626073</v>
+      </c>
+      <c r="D21" s="9">
+        <v>-1.5332285415097824</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0.12744451890216346</v>
+      </c>
+      <c r="F21" s="9">
+        <v>-2350.3171093077763</v>
+      </c>
+      <c r="G21" s="9">
+        <v>297.02213213709433</v>
+      </c>
+      <c r="H21" s="9">
+        <v>-2350.3171093077763</v>
+      </c>
+      <c r="I21" s="9">
+        <v>297.02213213709433</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="10">
+        <v>-104.37110559978575</v>
+      </c>
+      <c r="C22" s="10">
+        <v>340.36149674638233</v>
+      </c>
+      <c r="D22" s="10">
+        <v>-0.30664780416557236</v>
+      </c>
+      <c r="E22" s="10">
+        <v>0.75956065138194939</v>
+      </c>
+      <c r="F22" s="10">
+        <v>-777.20145417736853</v>
+      </c>
+      <c r="G22" s="10">
+        <v>568.45924297779698</v>
+      </c>
+      <c r="H22" s="10">
+        <v>-777.20145417736853</v>
+      </c>
+      <c r="I22" s="10">
+        <v>568.45924297779698</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="15">
+        <f>B17+(B18*B26)+(B19*B27)+(B20*B26*B26)+(B21*B27*B27)+(B22*B26*B27)</f>
+        <v>3269.7127616786984</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f>$B$17+($B$18*B32)+($B$19*C32)+($B$20*B32*B32)+($B$21*C32*C32)+($B$22*B32*C32)</f>
+        <v>4062.8993482731344</v>
+      </c>
+      <c r="B32">
+        <v>1.9</v>
+      </c>
+      <c r="C32">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f>$B$17+($B$18*B33)+($B$19*C33)+($B$20*B33*B33)+($B$21*C33*C33)+($B$22*B33*C33)</f>
+        <v>4054.5563368439543</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f>$B$17+($B$18*B34)+($B$19*C34)+($B$20*B34*B34)+($B$21*C34*C34)+($B$22*B34*C34)</f>
+        <v>4039.8269870403083</v>
+      </c>
+      <c r="B34">
+        <v>1.8</v>
+      </c>
+      <c r="C34">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f>$B$17+($B$18*B35)+($B$19*C35)+($B$20*B35*B35)+($B$21*C35*C35)+($B$22*B35*C35)</f>
+        <v>4014.7979527527655</v>
+      </c>
+      <c r="B35">
+        <v>2.1</v>
+      </c>
+      <c r="C35">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f>$B$17+($B$18*B36)+($B$19*C36)+($B$20*B36*B36)+($B$21*C36*C36)+($B$22*B36*C36)</f>
+        <v>3985.3392531454751</v>
+      </c>
+      <c r="B36">
+        <v>1.7</v>
+      </c>
+      <c r="C36">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f>$B$17+($B$18*B37)+($B$19*C37)+($B$20*B37*B37)+($B$21*C37*C37)+($B$22*B37*C37)</f>
+        <v>3943.6241959995723</v>
+      </c>
+      <c r="B37">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C37">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f>$B$17+($B$18*B38)+($B$19*C38)+($B$20*B38*B38)+($B$21*C38*C38)+($B$22*B38*C38)</f>
+        <v>3899.4361465886368</v>
+      </c>
+      <c r="B38">
+        <v>1.6</v>
+      </c>
+      <c r="C38">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f>$B$17+($B$18*B39)+($B$19*C39)+($B$20*B39*B39)+($B$21*C39*C39)+($B$22*B39*C39)</f>
+        <v>3841.0350665843703</v>
+      </c>
+      <c r="B39">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C39">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f>$B$17+($B$18*B40)+($B$19*C40)+($B$20*B40*B40)+($B$21*C40*C40)+($B$22*B40*C40)</f>
+        <v>3782.1176673697923</v>
+      </c>
+      <c r="B40">
+        <v>1.5</v>
+      </c>
+      <c r="C40">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f>$B$17+($B$18*B41)+($B$19*C41)+($B$20*B41*B41)+($B$21*C41*C41)+($B$22*B41*C41)</f>
+        <v>3707.0305645071639</v>
+      </c>
+      <c r="B41">
+        <v>2.4</v>
+      </c>
+      <c r="C41">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f>$B$17+($B$18*B42)+($B$19*C42)+($B$20*B42*B42)+($B$21*C42*C42)+($B$22*B42*C42)</f>
+        <v>3633.3838154889386</v>
+      </c>
+      <c r="B42">
+        <v>1.4</v>
+      </c>
+      <c r="C42">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f>$B$17+($B$18*B43)+($B$19*C43)+($B$20*B43*B43)+($B$21*C43*C43)+($B$22*B43*C43)</f>
+        <v>3541.6106897679515</v>
+      </c>
+      <c r="B43">
+        <v>2.5</v>
+      </c>
+      <c r="C43">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f>$B$17+($B$18*B44)+($B$19*C44)+($B$20*B44*B44)+($B$21*C44*C44)+($B$22*B44*C44)</f>
+        <v>3453.2345909460819</v>
+      </c>
+      <c r="B44">
+        <v>1.3</v>
+      </c>
+      <c r="C44">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f>$B$17+($B$18*B45)+($B$19*C45)+($B$20*B45*B45)+($B$21*C45*C45)+($B$22*B45*C45)</f>
+        <v>3344.7754423667325</v>
+      </c>
+      <c r="B45">
+        <v>2.6</v>
+      </c>
+      <c r="C45">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f>$B$17+($B$18*B46)+($B$19*C46)+($B$20*B46*B46)+($B$21*C46*C46)+($B$22*B46*C46)</f>
+        <v>3241.6699937412168</v>
+      </c>
+      <c r="B46">
+        <v>1.2</v>
+      </c>
+      <c r="C46">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f>$B$17+($B$18*B47)+($B$19*C47)+($B$20*B47*B47)+($B$21*C47*C47)+($B$22*B47*C47)</f>
+        <v>3116.5248223035069</v>
+      </c>
+      <c r="B47">
+        <v>2.7</v>
+      </c>
+      <c r="C47">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f>$B$17+($B$18*B48)+($B$19*C48)+($B$20*B48*B48)+($B$21*C48*C48)+($B$22*B48*C48)</f>
+        <v>2998.690023874346</v>
+      </c>
+      <c r="B48">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C48">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f>$B$17+($B$18*B49)+($B$19*C49)+($B$20*B49*B49)+($B$21*C49*C49)+($B$22*B49*C49)</f>
+        <v>2856.8588295782752</v>
+      </c>
+      <c r="B49">
+        <v>2.8</v>
+      </c>
+      <c r="C49">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f>$B$17+($B$18*B50)+($B$19*C50)+($B$20*B50*B50)+($B$21*C50*C50)+($B$22*B50*C50)</f>
+        <v>2724.2946813454682</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f>$B$17+($B$18*B51)+($B$19*C51)+($B$20*B51*B51)+($B$21*C51*C51)+($B$22*B51*C51)</f>
+        <v>2565.7774641910364</v>
+      </c>
+      <c r="B51">
+        <v>2.9</v>
+      </c>
+      <c r="C51">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f>$B$17+($B$18*B52)+($B$19*C52)+($B$20*B52*B52)+($B$21*C52*C52)+($B$22*B52*C52)</f>
+        <v>2418.4839661545848</v>
+      </c>
+      <c r="B52">
+        <v>0.9</v>
+      </c>
+      <c r="C52">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f>$B$17+($B$18*B53)+($B$19*C53)+($B$20*B53*B53)+($B$21*C53*C53)+($B$22*B53*C53)</f>
+        <v>2243.280726141792</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f>$B$17+($B$18*B54)+($B$19*C54)+($B$20*B54*B54)+($B$21*C54*C54)+($B$22*B54*C54)</f>
+        <v>2081.2578783016938</v>
+      </c>
+      <c r="B54">
+        <v>0.8</v>
+      </c>
+      <c r="C54">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f>$B$17+($B$18*B55)+($B$19*C55)+($B$20*B55*B55)+($B$21*C55*C55)+($B$22*B55*C55)</f>
+        <v>1889.3686154305378</v>
+      </c>
+      <c r="B55">
+        <v>3.1</v>
+      </c>
+      <c r="C55">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f>$B$17+($B$18*B56)+($B$19*C56)+($B$20*B56*B56)+($B$21*C56*C56)+($B$22*B56*C56)</f>
+        <v>1712.6164177867965</v>
+      </c>
+      <c r="B56">
+        <v>0.7</v>
+      </c>
+      <c r="C56">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f>$B$17+($B$18*B57)+($B$19*C57)+($B$20*B57*B57)+($B$21*C57*C57)+($B$22*B57*C57)</f>
+        <v>1504.0411320572796</v>
+      </c>
+      <c r="B57">
+        <v>3.2</v>
+      </c>
+      <c r="C57">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f>$B$17+($B$18*B58)+($B$19*C58)+($B$20*B58*B58)+($B$21*C58*C58)+($B$22*B58*C58)</f>
+        <v>1312.5595846098934</v>
+      </c>
+      <c r="B58">
+        <v>0.6</v>
+      </c>
+      <c r="C58">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f>$B$17+($B$18*B59)+($B$19*C59)+($B$20*B59*B59)+($B$21*C59*C59)+($B$22*B59*C59)</f>
+        <v>1087.2982760220154</v>
+      </c>
+      <c r="B59">
+        <v>3.3</v>
+      </c>
+      <c r="C59">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f>$B$17+($B$18*B60)+($B$19*C60)+($B$20*B60*B60)+($B$21*C60*C60)+($B$22*B60*C60)</f>
+        <v>881.08737877098361</v>
+      </c>
+      <c r="B60">
+        <v>0.5</v>
+      </c>
+      <c r="C60">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f>$B$17+($B$18*B61)+($B$19*C61)+($B$20*B61*B61)+($B$21*C61*C61)+($B$22*B61*C61)</f>
+        <v>639.14004732474496</v>
+      </c>
+      <c r="B61">
+        <v>3.4</v>
+      </c>
+      <c r="C61">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f>$B$17+($B$18*B62)+($B$19*C62)+($B$20*B62*B62)+($B$21*C62*C62)+($B$22*B62*C62)</f>
+        <v>418.19980027006756</v>
+      </c>
+      <c r="B62">
+        <v>0.4</v>
+      </c>
+      <c r="C62">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f>$B$17+($B$18*B63)+($B$19*C63)+($B$20*B63*B63)+($B$21*C63*C63)+($B$22*B63*C63)</f>
+        <v>159.56644596546812</v>
+      </c>
+      <c r="B63">
+        <v>3.5</v>
+      </c>
+      <c r="C63">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f>$B$17+($B$18*B64)+($B$19*C64)+($B$20*B64*B64)+($B$21*C64*C64)+($B$22*B64*C64)</f>
+        <v>-76.103150892855567</v>
+      </c>
+      <c r="B64">
+        <v>0.3</v>
+      </c>
+      <c r="C64">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f>$B$17+($B$18*B65)+($B$19*C65)+($B$20*B65*B65)+($B$21*C65*C65)+($B$22*B65*C65)</f>
+        <v>-351.42252805581643</v>
+      </c>
+      <c r="B65">
+        <v>3.6</v>
+      </c>
+      <c r="C65">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f>$B$17+($B$18*B66)+($B$19*C66)+($B$20*B66*B66)+($B$21*C66*C66)+($B$22*B66*C66)</f>
+        <v>-601.82147471778444</v>
+      </c>
+      <c r="B66">
+        <v>0.2</v>
+      </c>
+      <c r="C66">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f>$B$17+($B$18*B67)+($B$19*C67)+($B$20*B67*B67)+($B$21*C67*C67)+($B$22*B67*C67)</f>
+        <v>-893.82687473910732</v>
+      </c>
+      <c r="B67">
+        <v>3.7</v>
+      </c>
+      <c r="C67">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f>$B$17+($B$18*B68)+($B$19*C68)+($B$20*B68*B68)+($B$21*C68*C68)+($B$22*B68*C68)</f>
+        <v>-1158.95517120472</v>
+      </c>
+      <c r="B68">
+        <v>0.1</v>
+      </c>
+      <c r="C68">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f>$B$17+($B$18*B69)+($B$19*C69)+($B$20*B69*B69)+($B$21*C69*C69)+($B$22*B69*C69)</f>
+        <v>-1467.6465940844023</v>
+      </c>
+      <c r="B69">
+        <v>3.8</v>
+      </c>
+      <c r="C69">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f>$B$17+($B$18*B70)+($B$19*C70)+($B$20*B70*B70)+($B$21*C70*C70)+($B$22*B70*C70)</f>
+        <v>-1747.5042403536625</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f>$B$17+($B$18*B71)+($B$19*C71)+($B$20*B71*B71)+($B$21*C71*C71)+($B$22*B71*C71)</f>
+        <v>-2072.8816860917073</v>
+      </c>
+      <c r="B71">
+        <v>3.9</v>
+      </c>
+      <c r="C71">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f>$B$17+($B$18*B72)+($B$19*C72)+($B$20*B72*B72)+($B$21*C72*C72)+($B$22*B72*C72)</f>
+        <v>-2709.5321507610165</v>
+      </c>
+      <c r="B72">
+        <v>4</v>
+      </c>
+      <c r="C72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f>$B$17+($B$18*B73)+($B$19*C73)+($B$20*B73*B73)+($B$21*C73*C73)+($B$22*B73*C73)</f>
+        <v>-3377.5979880923314</v>
+      </c>
+      <c r="B73">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C73">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f>$B$17+($B$18*B74)+($B$19*C74)+($B$20*B74*B74)+($B$21*C74*C74)+($B$22*B74*C74)</f>
+        <v>-4077.0791980856534</v>
+      </c>
+      <c r="B74">
+        <v>4.2</v>
+      </c>
+      <c r="C74">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f>$B$17+($B$18*B75)+($B$19*C75)+($B$20*B75*B75)+($B$21*C75*C75)+($B$22*B75*C75)</f>
+        <v>-4807.9757807409842</v>
+      </c>
+      <c r="B75">
+        <v>4.3</v>
+      </c>
+      <c r="C75">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f>$B$17+($B$18*B76)+($B$19*C76)+($B$20*B76*B76)+($B$21*C76*C76)+($B$22*B76*C76)</f>
+        <v>-5570.2877360583225</v>
+      </c>
+      <c r="B76">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C76">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f>$B$17+($B$18*B77)+($B$19*C77)+($B$20*B77*B77)+($B$21*C77*C77)+($B$22*B77*C77)</f>
+        <v>-6364.0150640376605</v>
+      </c>
+      <c r="B77">
+        <v>4.5</v>
+      </c>
+      <c r="C77">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f>$B$17+($B$18*B78)+($B$19*C78)+($B$20*B78*B78)+($B$21*C78*C78)+($B$22*B78*C78)</f>
+        <v>-7189.157764679012</v>
+      </c>
+      <c r="B78">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C78">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f>$B$17+($B$18*B79)+($B$19*C79)+($B$20*B79*B79)+($B$21*C79*C79)+($B$22*B79*C79)</f>
+        <v>-8045.7158379823732</v>
+      </c>
+      <c r="B79">
+        <v>4.7</v>
+      </c>
+      <c r="C79">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f>$B$17+($B$18*B80)+($B$19*C80)+($B$20*B80*B80)+($B$21*C80*C80)+($B$22*B80*C80)</f>
+        <v>-8933.6892839477259</v>
+      </c>
+      <c r="B80">
+        <v>4.8</v>
+      </c>
+      <c r="C80">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f>$B$17+($B$18*B81)+($B$19*C81)+($B$20*B81*B81)+($B$21*C81*C81)+($B$22*B81*C81)</f>
+        <v>-9853.0781025751003</v>
+      </c>
+      <c r="B81">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C81">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f>$B$17+($B$18*B82)+($B$19*C82)+($B$20*B82*B82)+($B$21*C82*C82)+($B$22*B82*C82)</f>
+        <v>-10803.882293864472</v>
+      </c>
+      <c r="B82">
+        <v>5</v>
+      </c>
+      <c r="C82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <f>$B$17+($B$18*B83)+($B$19*C83)+($B$20*B83*B83)+($B$21*C83*C83)+($B$22*B83*C83)</f>
+        <v>-11786.101857815847</v>
+      </c>
+      <c r="B83">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C83">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <f>$B$17+($B$18*B84)+($B$19*C84)+($B$20*B84*B84)+($B$21*C84*C84)+($B$22*B84*C84)</f>
+        <v>-12799.73679442924</v>
+      </c>
+      <c r="B84">
+        <v>5.2</v>
+      </c>
+      <c r="C84">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <f>$B$17+($B$18*B85)+($B$19*C85)+($B$20*B85*B85)+($B$21*C85*C85)+($B$22*B85*C85)</f>
+        <v>-13844.787103704633</v>
+      </c>
+      <c r="B85">
+        <v>5.3</v>
+      </c>
+      <c r="C85">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <f>$B$17+($B$18*B86)+($B$19*C86)+($B$20*B86*B86)+($B$21*C86*C86)+($B$22*B86*C86)</f>
+        <v>-14921.252785642035</v>
+      </c>
+      <c r="B86">
+        <v>5.4</v>
+      </c>
+      <c r="C86">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f>$B$17+($B$18*B87)+($B$19*C87)+($B$20*B87*B87)+($B$21*C87*C87)+($B$22*B87*C87)</f>
+        <v>-16029.13384024144</v>
+      </c>
+      <c r="B87">
+        <v>5.5</v>
+      </c>
+      <c r="C87">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <f>$B$17+($B$18*B88)+($B$19*C88)+($B$20*B88*B88)+($B$21*C88*C88)+($B$22*B88*C88)</f>
+        <v>-17168.430267502845</v>
+      </c>
+      <c r="B88">
+        <v>5.6</v>
+      </c>
+      <c r="C88">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f>$B$17+($B$18*B89)+($B$19*C89)+($B$20*B89*B89)+($B$21*C89*C89)+($B$22*B89*C89)</f>
+        <v>-18339.142067426274</v>
+      </c>
+      <c r="B89">
+        <v>5.7</v>
+      </c>
+      <c r="C89">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <f>$B$17+($B$18*B90)+($B$19*C90)+($B$20*B90*B90)+($B$21*C90*C90)+($B$22*B90*C90)</f>
+        <v>-19541.269240011694</v>
+      </c>
+      <c r="B90">
+        <v>5.8</v>
+      </c>
+      <c r="C90">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <f>$B$17+($B$18*B91)+($B$19*C91)+($B$20*B91*B91)+($B$21*C91*C91)+($B$22*B91*C91)</f>
+        <v>-20774.811785259142</v>
+      </c>
+      <c r="B91">
+        <v>5.9</v>
+      </c>
+      <c r="C91">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <f>$B$17+($B$18*B92)+($B$19*C92)+($B$20*B92*B92)+($B$21*C92*C92)+($B$22*B92*C92)</f>
+        <v>-22039.769703168568</v>
+      </c>
+      <c r="B92">
+        <v>6</v>
+      </c>
+      <c r="C92">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <f>$B$17+($B$18*B93)+($B$19*C93)+($B$20*B93*B93)+($B$21*C93*C93)+($B$22*B93*C93)</f>
+        <v>-23336.14299374001</v>
+      </c>
+      <c r="B93">
+        <v>6.1</v>
+      </c>
+      <c r="C93">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <f>$B$17+($B$18*B94)+($B$19*C94)+($B$20*B94*B94)+($B$21*C94*C94)+($B$22*B94*C94)</f>
+        <v>-24663.931656973469</v>
+      </c>
+      <c r="B94">
+        <v>6.2</v>
+      </c>
+      <c r="C94">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <f>$B$17+($B$18*B95)+($B$19*C95)+($B$20*B95*B95)+($B$21*C95*C95)+($B$22*B95*C95)</f>
+        <v>-26023.135692868924</v>
+      </c>
+      <c r="B95">
+        <v>6.3</v>
+      </c>
+      <c r="C95">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <f>$B$17+($B$18*B96)+($B$19*C96)+($B$20*B96*B96)+($B$21*C96*C96)+($B$22*B96*C96)</f>
+        <v>-27413.755101426399</v>
+      </c>
+      <c r="B96">
+        <v>6.4</v>
+      </c>
+      <c r="C96">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <f>$B$17+($B$18*B97)+($B$19*C97)+($B$20*B97*B97)+($B$21*C97*C97)+($B$22*B97*C97)</f>
+        <v>-28835.789882645859</v>
+      </c>
+      <c r="B97">
+        <v>6.5</v>
+      </c>
+      <c r="C97">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <f>$B$17+($B$18*B98)+($B$19*C98)+($B$20*B98*B98)+($B$21*C98*C98)+($B$22*B98*C98)</f>
+        <v>-30289.240036527335</v>
+      </c>
+      <c r="B98">
+        <v>6.6</v>
+      </c>
+      <c r="C98">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <f>$B$17+($B$18*B99)+($B$19*C99)+($B$20*B99*B99)+($B$21*C99*C99)+($B$22*B99*C99)</f>
+        <v>-31774.105563070825</v>
+      </c>
+      <c r="B99">
+        <v>6.7</v>
+      </c>
+      <c r="C99">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <f>$B$17+($B$18*B100)+($B$19*C100)+($B$20*B100*B100)+($B$21*C100*C100)+($B$22*B100*C100)</f>
+        <v>-33290.386462276314</v>
+      </c>
+      <c r="B100">
+        <v>6.8</v>
+      </c>
+      <c r="C100">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <f>$B$17+($B$18*B101)+($B$19*C101)+($B$20*B101*B101)+($B$21*C101*C101)+($B$22*B101*C101)</f>
+        <v>-34838.08273414382</v>
+      </c>
+      <c r="B101">
+        <v>6.9</v>
+      </c>
+      <c r="C101">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <f>$B$17+($B$18*B102)+($B$19*C102)+($B$20*B102*B102)+($B$21*C102*C102)+($B$22*B102*C102)</f>
+        <v>-36417.194378673317</v>
+      </c>
+      <c r="B102">
+        <v>7</v>
+      </c>
+      <c r="C102">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <f>$B$17+($B$18*B103)+($B$19*C103)+($B$20*B103*B103)+($B$21*C103*C103)+($B$22*B103*C103)</f>
+        <v>-38027.721395864821</v>
+      </c>
+      <c r="B103">
+        <v>7.1</v>
+      </c>
+      <c r="C103">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <f>$B$17+($B$18*B104)+($B$19*C104)+($B$20*B104*B104)+($B$21*C104*C104)+($B$22*B104*C104)</f>
+        <v>-39669.663785718338</v>
+      </c>
+      <c r="B104">
+        <v>7.2</v>
+      </c>
+      <c r="C104">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <f>$B$17+($B$18*B105)+($B$19*C105)+($B$20*B105*B105)+($B$21*C105*C105)+($B$22*B105*C105)</f>
+        <v>-41343.021548233868</v>
+      </c>
+      <c r="B105">
+        <v>7.3</v>
+      </c>
+      <c r="C105">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <f>$B$17+($B$18*B106)+($B$19*C106)+($B$20*B106*B106)+($B$21*C106*C106)+($B$22*B106*C106)</f>
+        <v>-43047.794683411397</v>
+      </c>
+      <c r="B106">
+        <v>7.4</v>
+      </c>
+      <c r="C106">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <f>$B$17+($B$18*B107)+($B$19*C107)+($B$20*B107*B107)+($B$21*C107*C107)+($B$22*B107*C107)</f>
+        <v>-44783.983191250933</v>
+      </c>
+      <c r="B107">
+        <v>7.5</v>
+      </c>
+      <c r="C107">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <f>$B$17+($B$18*B108)+($B$19*C108)+($B$20*B108*B108)+($B$21*C108*C108)+($B$22*B108*C108)</f>
+        <v>-46551.587071752474</v>
+      </c>
+      <c r="B108">
+        <v>7.6</v>
+      </c>
+      <c r="C108">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <f>$B$17+($B$18*B109)+($B$19*C109)+($B$20*B109*B109)+($B$21*C109*C109)+($B$22*B109*C109)</f>
+        <v>-48350.606324916022</v>
+      </c>
+      <c r="B109">
+        <v>7.7</v>
+      </c>
+      <c r="C109">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <f>$B$17+($B$18*B110)+($B$19*C110)+($B$20*B110*B110)+($B$21*C110*C110)+($B$22*B110*C110)</f>
+        <v>-50181.040950741575</v>
+      </c>
+      <c r="B110">
+        <v>7.8</v>
+      </c>
+      <c r="C110">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <f>$B$17+($B$18*B111)+($B$19*C111)+($B$20*B111*B111)+($B$21*C111*C111)+($B$22*B111*C111)</f>
+        <v>-52042.89094922915</v>
+      </c>
+      <c r="B111">
+        <v>7.9</v>
+      </c>
+      <c r="C111">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <f>$B$17+($B$18*B112)+($B$19*C112)+($B$20*B112*B112)+($B$21*C112*C112)+($B$22*B112*C112)</f>
+        <v>-53936.156320378708</v>
+      </c>
+      <c r="B112">
+        <v>8</v>
+      </c>
+      <c r="C112">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <f>$B$17+($B$18*B113)+($B$19*C113)+($B$20*B113*B113)+($B$21*C113*C113)+($B$22*B113*C113)</f>
+        <v>-55860.837064190258</v>
+      </c>
+      <c r="B113">
+        <v>8.1</v>
+      </c>
+      <c r="C113">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <f>$B$17+($B$18*B114)+($B$19*C114)+($B$20*B114*B114)+($B$21*C114*C114)+($B$22*B114*C114)</f>
+        <v>-57816.933180663851</v>
+      </c>
+      <c r="B114">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C114">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <f>$B$17+($B$18*B115)+($B$19*C115)+($B$20*B115*B115)+($B$21*C115*C115)+($B$22*B115*C115)</f>
+        <v>-59804.444669799457</v>
+      </c>
+      <c r="B115">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C115">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <f>$B$17+($B$18*B116)+($B$19*C116)+($B$20*B116*B116)+($B$21*C116*C116)+($B$22*B116*C116)</f>
+        <v>-61823.37153159704</v>
+      </c>
+      <c r="B116">
+        <v>8.4</v>
+      </c>
+      <c r="C116">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <f>$B$17+($B$18*B117)+($B$19*C117)+($B$20*B117*B117)+($B$21*C117*C117)+($B$22*B117*C117)</f>
+        <v>-63873.713766056651</v>
+      </c>
+      <c r="B117">
+        <v>8.5</v>
+      </c>
+      <c r="C117">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <f>$B$17+($B$18*B118)+($B$19*C118)+($B$20*B118*B118)+($B$21*C118*C118)+($B$22*B118*C118)</f>
+        <v>-65955.471373178254</v>
+      </c>
+      <c r="B118">
+        <v>8.6</v>
+      </c>
+      <c r="C118">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <f>$B$17+($B$18*B119)+($B$19*C119)+($B$20*B119*B119)+($B$21*C119*C119)+($B$22*B119*C119)</f>
+        <v>-68068.644352961841</v>
+      </c>
+      <c r="B119">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C119">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <f>$B$17+($B$18*B120)+($B$19*C120)+($B$20*B120*B120)+($B$21*C120*C120)+($B$22*B120*C120)</f>
+        <v>-70213.232705407499</v>
+      </c>
+      <c r="B120">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C120">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <f>$B$17+($B$18*B121)+($B$19*C121)+($B$20*B121*B121)+($B$21*C121*C121)+($B$22*B121*C121)</f>
+        <v>-72389.236430515128</v>
+      </c>
+      <c r="B121">
+        <v>8.9</v>
+      </c>
+      <c r="C121">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <f>$B$17+($B$18*B122)+($B$19*C122)+($B$20*B122*B122)+($B$21*C122*C122)+($B$22*B122*C122)</f>
+        <v>-74596.65552828474</v>
+      </c>
+      <c r="B122">
+        <v>9</v>
+      </c>
+      <c r="C122">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <f>$B$17+($B$18*B123)+($B$19*C123)+($B$20*B123*B123)+($B$21*C123*C123)+($B$22*B123*C123)</f>
+        <v>-76835.489998716395</v>
+      </c>
+      <c r="B123">
+        <v>9.1</v>
+      </c>
+      <c r="C123">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <f>$B$17+($B$18*B124)+($B$19*C124)+($B$20*B124*B124)+($B$21*C124*C124)+($B$22*B124*C124)</f>
+        <v>-79105.73984181002</v>
+      </c>
+      <c r="B124">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C124">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <f>$B$17+($B$18*B125)+($B$19*C125)+($B$20*B125*B125)+($B$21*C125*C125)+($B$22*B125*C125)</f>
+        <v>-81407.405057565687</v>
+      </c>
+      <c r="B125">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C125">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <f>$B$17+($B$18*B126)+($B$19*C126)+($B$20*B126*B126)+($B$21*C126*C126)+($B$22*B126*C126)</f>
+        <v>-83740.485645983368</v>
+      </c>
+      <c r="B126">
+        <v>9.4</v>
+      </c>
+      <c r="C126">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <f>$B$17+($B$18*B127)+($B$19*C127)+($B$20*B127*B127)+($B$21*C127*C127)+($B$22*B127*C127)</f>
+        <v>-86104.981607063019</v>
+      </c>
+      <c r="B127">
+        <v>9.5</v>
+      </c>
+      <c r="C127">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <f>$B$17+($B$18*B128)+($B$19*C128)+($B$20*B128*B128)+($B$21*C128*C128)+($B$22*B128*C128)</f>
+        <v>-88500.892940804668</v>
+      </c>
+      <c r="B128">
+        <v>9.6</v>
+      </c>
+      <c r="C128">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <f>$B$17+($B$18*B129)+($B$19*C129)+($B$20*B129*B129)+($B$21*C129*C129)+($B$22*B129*C129)</f>
+        <v>-90928.219647208345</v>
+      </c>
+      <c r="B129">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C129">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <f>$B$17+($B$18*B130)+($B$19*C130)+($B$20*B130*B130)+($B$21*C130*C130)+($B$22*B130*C130)</f>
+        <v>-93386.96172627405</v>
+      </c>
+      <c r="B130">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C130">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <f>$B$17+($B$18*B131)+($B$19*C131)+($B$20*B131*B131)+($B$21*C131*C131)+($B$22*B131*C131)</f>
+        <v>-95877.119178001725</v>
+      </c>
+      <c r="B131">
+        <v>9.9</v>
+      </c>
+      <c r="C131">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <f>$B$17+($B$18*B132)+($B$19*C132)+($B$20*B132*B132)+($B$21*C132*C132)+($B$22*B132*C132)</f>
+        <v>-98398.692002391443</v>
+      </c>
+      <c r="B132">
+        <v>10</v>
+      </c>
+      <c r="C132">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A32:C132">
+    <sortCondition descending="1" ref="A32:A132"/>
+  </sortState>
+  <conditionalFormatting sqref="A32:A132">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E0279F-C843-49B4-9FCB-9E222CFD0814}">
-  <dimension ref="A1:N149"/>
+  <dimension ref="A1:S149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,9 +2874,11 @@
     <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.42578125" customWidth="1"/>
+    <col min="13" max="13" width="1.5703125" style="5" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1021,22 +2907,35 @@
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="4"/>
+      <c r="N1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="R1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>95</v>
       </c>
@@ -1070,20 +2969,36 @@
       <c r="K2">
         <v>2.8</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="1">
         <f>((ABS(B2)*F2)/H2)</f>
         <v>4125.6245360776666</v>
       </c>
-      <c r="M2">
-        <f>CORREL(J2:J149,L2:L149)</f>
-        <v>0.39212137887830889</v>
-      </c>
-      <c r="N2">
-        <f>CORREL(K2:K149,L2:L149)</f>
-        <v>7.5278648950132018E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N2" s="8">
+        <f>B2</f>
+        <v>40489.410000000003</v>
+      </c>
+      <c r="O2">
+        <f>J2</f>
+        <v>2</v>
+      </c>
+      <c r="P2">
+        <f>K2</f>
+        <v>2.8</v>
+      </c>
+      <c r="Q2">
+        <f>O2*O2</f>
+        <v>4</v>
+      </c>
+      <c r="R2">
+        <f>P2*P2</f>
+        <v>7.839999999999999</v>
+      </c>
+      <c r="S2">
+        <f>O2*P2</f>
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>105</v>
       </c>
@@ -1117,12 +3032,36 @@
       <c r="K3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="1">
         <f t="shared" ref="L3:L66" si="0">((ABS(B3)*F3)/H3)</f>
         <v>3809.8754485185018</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N3" s="8">
+        <f t="shared" ref="N3:N66" si="1">B3</f>
+        <v>5317.86</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O66" si="2">J3</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P66" si="3">K3</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q66" si="4">O3*O3</f>
+        <v>21.159999999999997</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R66" si="5">P3*P3</f>
+        <v>4.8400000000000007</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S66" si="6">O3*P3</f>
+        <v>10.119999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>114</v>
       </c>
@@ -1156,12 +3095,36 @@
       <c r="K4">
         <v>1.5</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="1">
         <f t="shared" si="0"/>
         <v>3684.9207861442874</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N4" s="8">
+        <f t="shared" si="1"/>
+        <v>3506</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="2"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="4"/>
+        <v>21.159999999999997</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="5"/>
+        <v>2.25</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="6"/>
+        <v>6.8999999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>9</v>
       </c>
@@ -1195,12 +3158,36 @@
       <c r="K5">
         <v>0.8</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="1">
         <f t="shared" si="0"/>
         <v>3507.6179952887169</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N5" s="8">
+        <f t="shared" si="1"/>
+        <v>1786.23</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="2"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="4"/>
+        <v>21.159999999999997</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="5"/>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="6"/>
+        <v>3.6799999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10</v>
       </c>
@@ -1234,12 +3221,36 @@
       <c r="K6">
         <v>2.7</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="1">
         <f t="shared" si="0"/>
         <v>2534.0093545319587</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N6" s="8">
+        <f t="shared" si="1"/>
+        <v>5026.83</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="3"/>
+        <v>2.7</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="4"/>
+        <v>20.25</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="5"/>
+        <v>7.2900000000000009</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="6"/>
+        <v>12.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1273,12 +3284,36 @@
       <c r="K7">
         <v>2.5</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="1">
         <f t="shared" si="0"/>
         <v>2506.5475699140934</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N7" s="8">
+        <f t="shared" si="1"/>
+        <v>5469.86</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="2"/>
+        <v>4.7</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="4"/>
+        <v>22.090000000000003</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="5"/>
+        <v>6.25</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="6"/>
+        <v>11.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>126</v>
       </c>
@@ -1312,12 +3347,36 @@
       <c r="K8">
         <v>2.4</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="1">
         <f t="shared" si="0"/>
         <v>2505.0699769934004</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N8" s="8">
+        <f t="shared" si="1"/>
+        <v>5254.84</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="2"/>
+        <v>4.7</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="3"/>
+        <v>2.4</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="4"/>
+        <v>22.090000000000003</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="5"/>
+        <v>5.76</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="6"/>
+        <v>11.28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>18</v>
       </c>
@@ -1351,12 +3410,36 @@
       <c r="K9">
         <v>1.4</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="1">
         <f t="shared" si="0"/>
         <v>2419.184431102733</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N9" s="8">
+        <f t="shared" si="1"/>
+        <v>2452.4499999999998</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="3"/>
+        <v>1.4</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="4"/>
+        <v>20.25</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="5"/>
+        <v>1.9599999999999997</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="6"/>
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>80</v>
       </c>
@@ -1390,12 +3473,36 @@
       <c r="K10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="1">
         <f t="shared" si="0"/>
         <v>2235.2036112122055</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N10" s="8">
+        <f t="shared" si="1"/>
+        <v>30006.01</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="3"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="5"/>
+        <v>4.8400000000000007</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="6"/>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>53</v>
       </c>
@@ -1429,12 +3536,36 @@
       <c r="K11">
         <v>1.5</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="1">
         <f t="shared" si="0"/>
         <v>2029.7620280861506</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N11" s="8">
+        <f t="shared" si="1"/>
+        <v>2371.58</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="2"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="4"/>
+        <v>19.360000000000003</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="5"/>
+        <v>2.25</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="6"/>
+        <v>6.6000000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>57</v>
       </c>
@@ -1468,12 +3599,36 @@
       <c r="K12">
         <v>1.6</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="1">
         <f t="shared" si="0"/>
         <v>2024.308796935167</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N12" s="8">
+        <f t="shared" si="1"/>
+        <v>2534.87</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="2"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="3"/>
+        <v>1.6</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="4"/>
+        <v>19.360000000000003</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="5"/>
+        <v>2.5600000000000005</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="6"/>
+        <v>7.0400000000000009</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>15</v>
       </c>
@@ -1507,12 +3662,36 @@
       <c r="K13">
         <v>0.2</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="1">
         <f t="shared" si="0"/>
         <v>1069.1669060102565</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N13" s="8">
+        <f t="shared" si="1"/>
+        <v>317.62</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="2"/>
+        <v>3.9</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="4"/>
+        <v>15.209999999999999</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="5"/>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="6"/>
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>113</v>
       </c>
@@ -1546,12 +3725,36 @@
       <c r="K14">
         <v>0.7</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="1">
         <f t="shared" si="0"/>
         <v>887.89957953234875</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N14" s="8">
+        <f t="shared" si="1"/>
+        <v>4929.83</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="2"/>
+        <v>1.8</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="3"/>
+        <v>0.7</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="4"/>
+        <v>3.24</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="5"/>
+        <v>0.48999999999999994</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="6"/>
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>96</v>
       </c>
@@ -1585,12 +3788,36 @@
       <c r="K15">
         <v>0.6</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="1">
         <f t="shared" si="0"/>
         <v>877.09241458878398</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N15" s="8">
+        <f t="shared" si="1"/>
+        <v>4049.18</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="2"/>
+        <v>1.8</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="4"/>
+        <v>3.24</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="5"/>
+        <v>0.36</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="6"/>
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>97</v>
       </c>
@@ -1624,12 +3851,36 @@
       <c r="K16">
         <v>0.9</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="1">
         <f t="shared" si="0"/>
         <v>764.22013351233181</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N16" s="8">
+        <f t="shared" si="1"/>
+        <v>6094.04</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="2"/>
+        <v>1.8</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="3"/>
+        <v>0.9</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="4"/>
+        <v>3.24</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="5"/>
+        <v>0.81</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="6"/>
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>37</v>
       </c>
@@ -1663,12 +3914,36 @@
       <c r="K17">
         <v>2</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="1">
         <f t="shared" si="0"/>
         <v>752.81186972364549</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N17" s="8">
+        <f t="shared" si="1"/>
+        <v>3312.13</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="2"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="4"/>
+        <v>24.010000000000005</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="6"/>
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6</v>
       </c>
@@ -1702,12 +3977,36 @@
       <c r="K18">
         <v>1.5</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="1">
         <f t="shared" si="0"/>
         <v>646.58219123920503</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N18" s="8">
+        <f t="shared" si="1"/>
+        <v>13105.34</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="5"/>
+        <v>2.25</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>131</v>
       </c>
@@ -1741,12 +4040,36 @@
       <c r="K19">
         <v>2.1</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="1">
         <f t="shared" si="0"/>
         <v>487.14747817973569</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N19" s="8">
+        <f t="shared" si="1"/>
+        <v>11825.03</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="2"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="3"/>
+        <v>2.1</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="4"/>
+        <v>5.2899999999999991</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="5"/>
+        <v>4.41</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="6"/>
+        <v>4.83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>137</v>
       </c>
@@ -1780,12 +4103,36 @@
       <c r="K20">
         <v>1.7</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="1">
         <f t="shared" si="0"/>
         <v>487.00826232901619</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N20" s="8">
+        <f t="shared" si="1"/>
+        <v>3083.4</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="3"/>
+        <v>1.7</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="4"/>
+        <v>12.25</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="5"/>
+        <v>2.8899999999999997</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="6"/>
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>135</v>
       </c>
@@ -1819,12 +4166,36 @@
       <c r="K21">
         <v>2.1</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="1">
         <f t="shared" si="0"/>
         <v>466.287757015078</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N21" s="8">
+        <f t="shared" si="1"/>
+        <v>2406.96</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="2"/>
+        <v>4.8</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="3"/>
+        <v>2.1</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="4"/>
+        <v>23.04</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="5"/>
+        <v>4.41</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="6"/>
+        <v>10.08</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>66</v>
       </c>
@@ -1858,12 +4229,36 @@
       <c r="K22">
         <v>1.9</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="1">
         <f t="shared" si="0"/>
         <v>466.26366999649673</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N22" s="8">
+        <f t="shared" si="1"/>
+        <v>8399.7099999999991</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="2"/>
+        <v>1.2</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="3"/>
+        <v>1.9</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="4"/>
+        <v>1.44</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="5"/>
+        <v>3.61</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="6"/>
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -1897,12 +4292,36 @@
       <c r="K23">
         <v>1</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23" s="1">
         <f t="shared" si="0"/>
         <v>460.52459989220523</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N23" s="8">
+        <f t="shared" si="1"/>
+        <v>1127.5899999999999</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="2"/>
+        <v>4.8</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="4"/>
+        <v>23.04</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="6"/>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>143</v>
       </c>
@@ -1936,12 +4355,36 @@
       <c r="K24">
         <v>2.4</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L24" s="1">
         <f t="shared" si="0"/>
         <v>459.80970552324686</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N24" s="8">
+        <f t="shared" si="1"/>
+        <v>2732.59</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="2"/>
+        <v>4.8</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="3"/>
+        <v>2.4</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="4"/>
+        <v>23.04</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="5"/>
+        <v>5.76</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="6"/>
+        <v>11.52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>116</v>
       </c>
@@ -1975,12 +4418,36 @@
       <c r="K25">
         <v>0.2</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L25" s="1">
         <f t="shared" si="0"/>
         <v>449.76409345704303</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N25" s="8">
+        <f t="shared" si="1"/>
+        <v>216.44</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="2"/>
+        <v>4.8</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="4"/>
+        <v>23.04</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="5"/>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="6"/>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>19</v>
       </c>
@@ -2014,12 +4481,36 @@
       <c r="K26">
         <v>1.3</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L26" s="1">
         <f t="shared" si="0"/>
         <v>446.12561230821296</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N26" s="8">
+        <f t="shared" si="1"/>
+        <v>1138.5999999999999</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="3"/>
+        <v>1.3</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="5"/>
+        <v>1.6900000000000002</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="6"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>118</v>
       </c>
@@ -2053,12 +4544,36 @@
       <c r="K27">
         <v>0.5</v>
       </c>
-      <c r="L27" s="4">
+      <c r="L27" s="1">
         <f t="shared" si="0"/>
         <v>435.26718141980723</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N27" s="8">
+        <f t="shared" si="1"/>
+        <v>428.76</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="6"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>29</v>
       </c>
@@ -2092,12 +4607,36 @@
       <c r="K28">
         <v>1</v>
       </c>
-      <c r="L28" s="4">
+      <c r="L28" s="1">
         <f t="shared" si="0"/>
         <v>430.8601205171683</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N28" s="8">
+        <f t="shared" si="1"/>
+        <v>4289.78</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="2"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="4"/>
+        <v>1.2100000000000002</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="6"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>11</v>
       </c>
@@ -2131,12 +4670,36 @@
       <c r="K29">
         <v>1.9</v>
       </c>
-      <c r="L29" s="4">
+      <c r="L29" s="1">
         <f t="shared" si="0"/>
         <v>414.06997845420329</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N29" s="8">
+        <f t="shared" si="1"/>
+        <v>11350.94</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="2"/>
+        <v>1.9</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="3"/>
+        <v>1.9</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="4"/>
+        <v>3.61</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="5"/>
+        <v>3.61</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="6"/>
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>108</v>
       </c>
@@ -2170,12 +4733,36 @@
       <c r="K30">
         <v>2</v>
       </c>
-      <c r="L30" s="4">
+      <c r="L30" s="1">
         <f t="shared" si="0"/>
         <v>404.15667477286803</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N30" s="8">
+        <f t="shared" si="1"/>
+        <v>2003.74</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="2"/>
+        <v>3.9</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="4"/>
+        <v>15.209999999999999</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="6"/>
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>144</v>
       </c>
@@ -2209,12 +4796,36 @@
       <c r="K31">
         <v>1.3</v>
       </c>
-      <c r="L31" s="4">
+      <c r="L31" s="1">
         <f t="shared" si="0"/>
         <v>366.5622820595284</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N31" s="8">
+        <f t="shared" si="1"/>
+        <v>2148.3000000000002</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="3"/>
+        <v>1.3</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="4"/>
+        <v>12.25</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="5"/>
+        <v>1.6900000000000002</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="6"/>
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>102</v>
       </c>
@@ -2248,12 +4859,36 @@
       <c r="K32">
         <v>1.8</v>
       </c>
-      <c r="L32" s="4">
+      <c r="L32" s="1">
         <f t="shared" si="0"/>
         <v>350.71192467456069</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N32" s="8">
+        <f t="shared" si="1"/>
+        <v>2161.5500000000002</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="2"/>
+        <v>3.8</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="3"/>
+        <v>1.8</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="4"/>
+        <v>14.44</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="5"/>
+        <v>3.24</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="6"/>
+        <v>6.84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>63</v>
       </c>
@@ -2287,12 +4922,36 @@
       <c r="K33">
         <v>1.8</v>
       </c>
-      <c r="L33" s="4">
+      <c r="L33" s="1">
         <f t="shared" si="0"/>
         <v>342.35520341751237</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N33" s="8">
+        <f t="shared" si="1"/>
+        <v>2908.27</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="3"/>
+        <v>1.8</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="4"/>
+        <v>12.25</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="5"/>
+        <v>3.24</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="6"/>
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>20</v>
       </c>
@@ -2326,12 +4985,36 @@
       <c r="K34">
         <v>2.2999999999999998</v>
       </c>
-      <c r="L34" s="4">
+      <c r="L34" s="1">
         <f t="shared" si="0"/>
         <v>334.41269439737846</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N34" s="8">
+        <f t="shared" si="1"/>
+        <v>10645.87</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="3"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="4"/>
+        <v>5.76</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="5"/>
+        <v>5.2899999999999991</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="6"/>
+        <v>5.52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>51</v>
       </c>
@@ -2365,12 +5048,36 @@
       <c r="K35">
         <v>2.2000000000000002</v>
       </c>
-      <c r="L35" s="4">
+      <c r="L35" s="1">
         <f t="shared" si="0"/>
         <v>333.85861542078851</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N35" s="8">
+        <f t="shared" si="1"/>
+        <v>2573.27</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="2"/>
+        <v>3.8</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="3"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="4"/>
+        <v>14.44</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="5"/>
+        <v>4.8400000000000007</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="6"/>
+        <v>8.36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>87</v>
       </c>
@@ -2404,12 +5111,36 @@
       <c r="K36">
         <v>2.1</v>
       </c>
-      <c r="L36" s="4">
+      <c r="L36" s="1">
         <f t="shared" si="0"/>
         <v>320.04523074209413</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N36" s="8">
+        <f t="shared" si="1"/>
+        <v>8218.57</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="2"/>
+        <v>1.2</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="3"/>
+        <v>2.1</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="4"/>
+        <v>1.44</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="5"/>
+        <v>4.41</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="6"/>
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>86</v>
       </c>
@@ -2443,12 +5174,36 @@
       <c r="K37">
         <v>2.5</v>
       </c>
-      <c r="L37" s="4">
+      <c r="L37" s="1">
         <f t="shared" si="0"/>
         <v>318.88003957566997</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N37" s="8">
+        <f t="shared" si="1"/>
+        <v>3933</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="4"/>
+        <v>12.25</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="5"/>
+        <v>6.25</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="6"/>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>145</v>
       </c>
@@ -2482,12 +5237,36 @@
       <c r="K38">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L38" s="4">
+      <c r="L38" s="1">
         <f t="shared" si="0"/>
         <v>300.91205989228126</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N38" s="8">
+        <f t="shared" si="1"/>
+        <v>6141.76</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="2"/>
+        <v>1.6</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="3"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="4"/>
+        <v>2.5600000000000005</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="5"/>
+        <v>1.2100000000000002</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="6"/>
+        <v>1.7600000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>117</v>
       </c>
@@ -2521,12 +5300,36 @@
       <c r="K39">
         <v>1.2</v>
       </c>
-      <c r="L39" s="4">
+      <c r="L39" s="1">
         <f t="shared" si="0"/>
         <v>300.13582928848052</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N39" s="8">
+        <f t="shared" si="1"/>
+        <v>5193.58</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="3"/>
+        <v>1.2</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="4"/>
+        <v>5.76</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="5"/>
+        <v>1.44</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="6"/>
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>24</v>
       </c>
@@ -2560,12 +5363,36 @@
       <c r="K40">
         <v>1.7</v>
       </c>
-      <c r="L40" s="4">
+      <c r="L40" s="1">
         <f t="shared" si="0"/>
         <v>293.01833687102771</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N40" s="8">
+        <f t="shared" si="1"/>
+        <v>9524.2999999999993</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="2"/>
+        <v>1.6</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="3"/>
+        <v>1.7</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="4"/>
+        <v>2.5600000000000005</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="5"/>
+        <v>2.8899999999999997</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="6"/>
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>109</v>
       </c>
@@ -2599,12 +5426,36 @@
       <c r="K41">
         <v>0.5</v>
       </c>
-      <c r="L41" s="4">
+      <c r="L41" s="1">
         <f t="shared" si="0"/>
         <v>292.38228495588959</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N41" s="8">
+        <f t="shared" si="1"/>
+        <v>2578.9299999999998</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>111</v>
       </c>
@@ -2638,12 +5489,36 @@
       <c r="K42">
         <v>3</v>
       </c>
-      <c r="L42" s="4">
+      <c r="L42" s="1">
         <f t="shared" si="0"/>
         <v>285.99172827290761</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N42" s="8">
+        <f t="shared" si="1"/>
+        <v>12524.77</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="2"/>
+        <v>1.4</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="4"/>
+        <v>1.9599999999999997</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="6"/>
+        <v>4.1999999999999993</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>75</v>
       </c>
@@ -2677,12 +5552,36 @@
       <c r="K43">
         <v>2.6</v>
       </c>
-      <c r="L43" s="4">
+      <c r="L43" s="1">
         <f t="shared" si="0"/>
         <v>280.24535379289603</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N43" s="8">
+        <f t="shared" si="1"/>
+        <v>10816.53</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="2"/>
+        <v>1.4</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="3"/>
+        <v>2.6</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="4"/>
+        <v>1.9599999999999997</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="5"/>
+        <v>6.7600000000000007</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="6"/>
+        <v>3.6399999999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>73</v>
       </c>
@@ -2716,12 +5615,36 @@
       <c r="K44">
         <v>1.4</v>
       </c>
-      <c r="L44" s="4">
+      <c r="L44" s="1">
         <f t="shared" si="0"/>
         <v>258.87470020991032</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N44" s="8">
+        <f t="shared" si="1"/>
+        <v>1008.24</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="2"/>
+        <v>4.2</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="3"/>
+        <v>1.4</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="4"/>
+        <v>17.64</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="5"/>
+        <v>1.9599999999999997</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="6"/>
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>55</v>
       </c>
@@ -2755,12 +5678,36 @@
       <c r="K45">
         <v>1.3</v>
       </c>
-      <c r="L45" s="4">
+      <c r="L45" s="1">
         <f t="shared" si="0"/>
         <v>254.32592364866403</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N45" s="8">
+        <f t="shared" si="1"/>
+        <v>925.82</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="2"/>
+        <v>4.2</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="3"/>
+        <v>1.3</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="4"/>
+        <v>17.64</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="5"/>
+        <v>1.6900000000000002</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="6"/>
+        <v>5.4600000000000009</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>99</v>
       </c>
@@ -2794,12 +5741,36 @@
       <c r="K46">
         <v>0.7</v>
       </c>
-      <c r="L46" s="4">
+      <c r="L46" s="1">
         <f t="shared" si="0"/>
         <v>246.06957526536596</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N46" s="8">
+        <f t="shared" si="1"/>
+        <v>3282.28</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="2"/>
+        <v>1.7</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="3"/>
+        <v>0.7</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="4"/>
+        <v>2.8899999999999997</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="5"/>
+        <v>0.48999999999999994</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="6"/>
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3</v>
       </c>
@@ -2833,12 +5804,36 @@
       <c r="K47">
         <v>1.8</v>
       </c>
-      <c r="L47" s="4">
+      <c r="L47" s="1">
         <f t="shared" si="0"/>
         <v>238.23511809702575</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N47" s="8">
+        <f t="shared" si="1"/>
+        <v>1244.1199999999999</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="2"/>
+        <v>4.2</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="3"/>
+        <v>1.8</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="4"/>
+        <v>17.64</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="5"/>
+        <v>3.24</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="6"/>
+        <v>7.5600000000000005</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>70</v>
       </c>
@@ -2872,12 +5867,36 @@
       <c r="K48">
         <v>2.2000000000000002</v>
       </c>
-      <c r="L48" s="4">
+      <c r="L48" s="1">
         <f t="shared" si="0"/>
         <v>226.60464256747309</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N48" s="8">
+        <f t="shared" si="1"/>
+        <v>10371.61</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="2"/>
+        <v>1.6</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="3"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="4"/>
+        <v>2.5600000000000005</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="5"/>
+        <v>4.8400000000000007</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="6"/>
+        <v>3.5200000000000005</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>72</v>
       </c>
@@ -2911,12 +5930,36 @@
       <c r="K49">
         <v>1.6</v>
       </c>
-      <c r="L49" s="4">
+      <c r="L49" s="1">
         <f t="shared" si="0"/>
         <v>222.84106446642318</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N49" s="8">
+        <f t="shared" si="1"/>
+        <v>5306.42</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="2"/>
+        <v>1.4</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="3"/>
+        <v>1.6</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="4"/>
+        <v>1.9599999999999997</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="5"/>
+        <v>2.5600000000000005</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="6"/>
+        <v>2.2399999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>36</v>
       </c>
@@ -2950,12 +5993,36 @@
       <c r="K50">
         <v>2</v>
       </c>
-      <c r="L50" s="4">
+      <c r="L50" s="1">
         <f t="shared" si="0"/>
         <v>217.8686962073852</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N50" s="8">
+        <f t="shared" si="1"/>
+        <v>8935.5499999999993</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="2"/>
+        <v>1.7</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="4"/>
+        <v>2.8899999999999997</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="6"/>
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>22</v>
       </c>
@@ -2989,12 +6056,36 @@
       <c r="K51">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L51" s="4">
+      <c r="L51" s="1">
         <f t="shared" si="0"/>
         <v>213.56496414519344</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N51" s="8">
+        <f t="shared" si="1"/>
+        <v>4380.62</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="2"/>
+        <v>1.9</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="3"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="4"/>
+        <v>3.61</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="5"/>
+        <v>1.2100000000000002</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="6"/>
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>71</v>
       </c>
@@ -3028,12 +6119,36 @@
       <c r="K52">
         <v>2.8</v>
       </c>
-      <c r="L52" s="4">
+      <c r="L52" s="1">
         <f t="shared" si="0"/>
         <v>212.34287543941124</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N52" s="8">
+        <f t="shared" si="1"/>
+        <v>1809.98</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="2"/>
+        <v>4.2</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="3"/>
+        <v>2.8</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="4"/>
+        <v>17.64</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="5"/>
+        <v>7.839999999999999</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="6"/>
+        <v>11.76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>5</v>
       </c>
@@ -3067,12 +6182,36 @@
       <c r="K53">
         <v>1.4</v>
       </c>
-      <c r="L53" s="4">
+      <c r="L53" s="1">
         <f t="shared" si="0"/>
         <v>205.60849617492781</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N53" s="8">
+        <f t="shared" si="1"/>
+        <v>6007.52</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="2"/>
+        <v>1.7</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="3"/>
+        <v>1.4</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="4"/>
+        <v>2.8899999999999997</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="5"/>
+        <v>1.9599999999999997</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="6"/>
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>21</v>
       </c>
@@ -3106,12 +6245,36 @@
       <c r="K54">
         <v>2.2000000000000002</v>
       </c>
-      <c r="L54" s="4">
+      <c r="L54" s="1">
         <f t="shared" si="0"/>
         <v>197.34913736413864</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N54" s="8">
+        <f t="shared" si="1"/>
+        <v>7035.15</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="2"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="3"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="4"/>
+        <v>1.2100000000000002</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="5"/>
+        <v>4.8400000000000007</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="6"/>
+        <v>2.4200000000000004</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>41</v>
       </c>
@@ -3145,12 +6308,36 @@
       <c r="K55">
         <v>2</v>
       </c>
-      <c r="L55" s="4">
+      <c r="L55" s="1">
         <f t="shared" si="0"/>
         <v>190.7026655565723</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N55" s="8">
+        <f t="shared" si="1"/>
+        <v>7929.18</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="4"/>
+        <v>2.25</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>7</v>
       </c>
@@ -3184,12 +6371,36 @@
       <c r="K56">
         <v>1.8</v>
       </c>
-      <c r="L56" s="4">
+      <c r="L56" s="1">
         <f t="shared" si="0"/>
         <v>171.08605446005603</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N56" s="8">
+        <f t="shared" si="1"/>
+        <v>5204.13</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="2"/>
+        <v>1.4</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="3"/>
+        <v>1.8</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="4"/>
+        <v>1.9599999999999997</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="5"/>
+        <v>3.24</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="6"/>
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>12</v>
       </c>
@@ -3223,12 +6434,36 @@
       <c r="K57">
         <v>1.8</v>
       </c>
-      <c r="L57" s="4">
+      <c r="L57" s="1">
         <f t="shared" si="0"/>
         <v>165.62887561089227</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N57" s="8">
+        <f t="shared" si="1"/>
+        <v>4906.08</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="3"/>
+        <v>1.8</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="4"/>
+        <v>6.25</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="5"/>
+        <v>3.24</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="6"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>146</v>
       </c>
@@ -3262,12 +6497,36 @@
       <c r="K58">
         <v>0.5</v>
       </c>
-      <c r="L58" s="4">
+      <c r="L58" s="1">
         <f t="shared" si="0"/>
         <v>165.27122864537796</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N58" s="8">
+        <f t="shared" si="1"/>
+        <v>1719.81</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="4"/>
+        <v>2.25</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="6"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>32</v>
       </c>
@@ -3301,12 +6560,36 @@
       <c r="K59">
         <v>0.7</v>
       </c>
-      <c r="L59" s="4">
+      <c r="L59" s="1">
         <f t="shared" si="0"/>
         <v>152.17453748808896</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N59" s="8">
+        <f t="shared" si="1"/>
+        <v>2445.92</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="2"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="3"/>
+        <v>0.7</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="4"/>
+        <v>4.8400000000000007</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="5"/>
+        <v>0.48999999999999994</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="6"/>
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>56</v>
       </c>
@@ -3340,12 +6623,36 @@
       <c r="K60">
         <v>1.6</v>
       </c>
-      <c r="L60" s="4">
+      <c r="L60" s="1">
         <f t="shared" si="0"/>
         <v>139.35244298132207</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N60" s="8">
+        <f t="shared" si="1"/>
+        <v>3770.41</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="3"/>
+        <v>1.6</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="5"/>
+        <v>2.5600000000000005</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="6"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>132</v>
       </c>
@@ -3379,12 +6686,36 @@
       <c r="K61">
         <v>0.5</v>
       </c>
-      <c r="L61" s="4">
+      <c r="L61" s="1">
         <f t="shared" si="0"/>
         <v>129.44420460507419</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N61" s="8">
+        <f t="shared" si="1"/>
+        <v>1833.02</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="2"/>
+        <v>1.6</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="4"/>
+        <v>2.5600000000000005</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="S61">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>25</v>
       </c>
@@ -3418,12 +6749,36 @@
       <c r="K62">
         <v>0.7</v>
       </c>
-      <c r="L62" s="4">
+      <c r="L62" s="1">
         <f t="shared" si="0"/>
         <v>127.47706596124777</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N62" s="8">
+        <f t="shared" si="1"/>
+        <v>1631.3</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="3"/>
+        <v>0.7</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="4"/>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="5"/>
+        <v>0.48999999999999994</v>
+      </c>
+      <c r="S62">
+        <f t="shared" si="6"/>
+        <v>0.55999999999999994</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>42</v>
       </c>
@@ -3457,12 +6812,36 @@
       <c r="K63">
         <v>2.2000000000000002</v>
       </c>
-      <c r="L63" s="4">
+      <c r="L63" s="1">
         <f t="shared" si="0"/>
         <v>110.06260929570399</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N63" s="8">
+        <f t="shared" si="1"/>
+        <v>6673.67</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="2"/>
+        <v>1.7</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="3"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="4"/>
+        <v>2.8899999999999997</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="5"/>
+        <v>4.8400000000000007</v>
+      </c>
+      <c r="S63">
+        <f t="shared" si="6"/>
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>98</v>
       </c>
@@ -3496,12 +6875,36 @@
       <c r="K64">
         <v>1.3</v>
       </c>
-      <c r="L64" s="4">
+      <c r="L64" s="1">
         <f t="shared" si="0"/>
         <v>103.9442772692244</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N64" s="8">
+        <f t="shared" si="1"/>
+        <v>1041.19</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="2"/>
+        <v>3.6</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="3"/>
+        <v>1.3</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="4"/>
+        <v>12.96</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="5"/>
+        <v>1.6900000000000002</v>
+      </c>
+      <c r="S64">
+        <f t="shared" si="6"/>
+        <v>4.6800000000000006</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>8</v>
       </c>
@@ -3535,12 +6938,36 @@
       <c r="K65">
         <v>2.2999999999999998</v>
       </c>
-      <c r="L65" s="4">
+      <c r="L65" s="1">
         <f t="shared" si="0"/>
         <v>96.679694370241037</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N65" s="8">
+        <f t="shared" si="1"/>
+        <v>6467.72</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="2"/>
+        <v>1.7</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="3"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="4"/>
+        <v>2.8899999999999997</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="5"/>
+        <v>5.2899999999999991</v>
+      </c>
+      <c r="S65">
+        <f t="shared" si="6"/>
+        <v>3.9099999999999997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>28</v>
       </c>
@@ -3574,12 +7001,36 @@
       <c r="K66">
         <v>1.3</v>
       </c>
-      <c r="L66" s="4">
+      <c r="L66" s="1">
         <f t="shared" si="0"/>
         <v>86.840837936644903</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N66" s="8">
+        <f t="shared" si="1"/>
+        <v>2598.4299999999998</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="3"/>
+        <v>1.3</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="4"/>
+        <v>0.36</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="5"/>
+        <v>1.6900000000000002</v>
+      </c>
+      <c r="S66">
+        <f t="shared" si="6"/>
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>82</v>
       </c>
@@ -3613,12 +7064,36 @@
       <c r="K67">
         <v>0.5</v>
       </c>
-      <c r="L67" s="4">
-        <f t="shared" ref="L67:L130" si="1">((ABS(B67)*F67)/H67)</f>
+      <c r="L67" s="1">
+        <f t="shared" ref="L67:L130" si="7">((ABS(B67)*F67)/H67)</f>
         <v>78.70839388141782</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N67" s="8">
+        <f t="shared" ref="N67:N130" si="8">B67</f>
+        <v>945.84</v>
+      </c>
+      <c r="O67">
+        <f t="shared" ref="O67:O130" si="9">J67</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P67">
+        <f t="shared" ref="P67:P130" si="10">K67</f>
+        <v>0.5</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" ref="Q67:Q130" si="11">O67*O67</f>
+        <v>1.2100000000000002</v>
+      </c>
+      <c r="R67">
+        <f t="shared" ref="R67:R130" si="12">P67*P67</f>
+        <v>0.25</v>
+      </c>
+      <c r="S67">
+        <f t="shared" ref="S67:S130" si="13">O67*P67</f>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>104</v>
       </c>
@@ -3652,12 +7127,36 @@
       <c r="K68">
         <v>1.7</v>
       </c>
-      <c r="L68" s="4">
-        <f t="shared" si="1"/>
+      <c r="L68" s="1">
+        <f t="shared" si="7"/>
         <v>77.062872404729262</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N68" s="8">
+        <f t="shared" si="8"/>
+        <v>3208.22</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="9"/>
+        <v>0.7</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="10"/>
+        <v>1.7</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="11"/>
+        <v>0.48999999999999994</v>
+      </c>
+      <c r="R68">
+        <f t="shared" si="12"/>
+        <v>2.8899999999999997</v>
+      </c>
+      <c r="S68">
+        <f t="shared" si="13"/>
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>90</v>
       </c>
@@ -3691,12 +7190,36 @@
       <c r="K69">
         <v>1.8</v>
       </c>
-      <c r="L69" s="4">
-        <f t="shared" si="1"/>
+      <c r="L69" s="1">
+        <f t="shared" si="7"/>
         <v>62.427151422339087</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N69" s="8">
+        <f t="shared" si="8"/>
+        <v>3189.86</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="9"/>
+        <v>0.8</v>
+      </c>
+      <c r="P69">
+        <f t="shared" si="10"/>
+        <v>1.8</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="11"/>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="R69">
+        <f t="shared" si="12"/>
+        <v>3.24</v>
+      </c>
+      <c r="S69">
+        <f t="shared" si="13"/>
+        <v>1.4400000000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>77</v>
       </c>
@@ -3730,12 +7253,36 @@
       <c r="K70">
         <v>1.7</v>
       </c>
-      <c r="L70" s="4">
-        <f t="shared" si="1"/>
+      <c r="L70" s="1">
+        <f t="shared" si="7"/>
         <v>58.510645072007954</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N70" s="8">
+        <f t="shared" si="8"/>
+        <v>2915.59</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="9"/>
+        <v>0.8</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="10"/>
+        <v>1.7</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="11"/>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="R70">
+        <f t="shared" si="12"/>
+        <v>2.8899999999999997</v>
+      </c>
+      <c r="S70">
+        <f t="shared" si="13"/>
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>78</v>
       </c>
@@ -3769,12 +7316,36 @@
       <c r="K71">
         <v>1.8</v>
       </c>
-      <c r="L71" s="4">
-        <f t="shared" si="1"/>
+      <c r="L71" s="1">
+        <f t="shared" si="7"/>
         <v>55.720140502459479</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N71" s="8">
+        <f t="shared" si="8"/>
+        <v>3001.97</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="10"/>
+        <v>1.8</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="11"/>
+        <v>0.25</v>
+      </c>
+      <c r="R71">
+        <f t="shared" si="12"/>
+        <v>3.24</v>
+      </c>
+      <c r="S71">
+        <f t="shared" si="13"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>130</v>
       </c>
@@ -3808,12 +7379,36 @@
       <c r="K72">
         <v>0.7</v>
       </c>
-      <c r="L72" s="4">
-        <f t="shared" si="1"/>
+      <c r="L72" s="1">
+        <f t="shared" si="7"/>
         <v>55.62923552977648</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N72" s="8">
+        <f t="shared" si="8"/>
+        <v>1332.49</v>
+      </c>
+      <c r="O72">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="10"/>
+        <v>0.7</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <f t="shared" si="12"/>
+        <v>0.48999999999999994</v>
+      </c>
+      <c r="S72">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>67</v>
       </c>
@@ -3847,12 +7442,36 @@
       <c r="K73">
         <v>2.2999999999999998</v>
       </c>
-      <c r="L73" s="4">
-        <f t="shared" si="1"/>
+      <c r="L73" s="1">
+        <f t="shared" si="7"/>
         <v>54.881759605535969</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N73" s="8">
+        <f t="shared" si="8"/>
+        <v>3801.15</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="9"/>
+        <v>0.6</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="10"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="11"/>
+        <v>0.36</v>
+      </c>
+      <c r="R73">
+        <f t="shared" si="12"/>
+        <v>5.2899999999999991</v>
+      </c>
+      <c r="S73">
+        <f t="shared" si="13"/>
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>50</v>
       </c>
@@ -3886,12 +7505,36 @@
       <c r="K74">
         <v>1.6</v>
       </c>
-      <c r="L74" s="4">
-        <f t="shared" si="1"/>
+      <c r="L74" s="1">
+        <f t="shared" si="7"/>
         <v>49.699788049176874</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N74" s="8">
+        <f t="shared" si="8"/>
+        <v>2404.56</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="10"/>
+        <v>1.6</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="11"/>
+        <v>0.25</v>
+      </c>
+      <c r="R74">
+        <f t="shared" si="12"/>
+        <v>2.5600000000000005</v>
+      </c>
+      <c r="S74">
+        <f t="shared" si="13"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>46</v>
       </c>
@@ -3925,12 +7568,36 @@
       <c r="K75">
         <v>2.5</v>
       </c>
-      <c r="L75" s="4">
-        <f t="shared" si="1"/>
+      <c r="L75" s="1">
+        <f t="shared" si="7"/>
         <v>48.693001316709122</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N75" s="8">
+        <f t="shared" si="8"/>
+        <v>3856.87</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="10"/>
+        <v>2.5</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="11"/>
+        <v>0.25</v>
+      </c>
+      <c r="R75">
+        <f t="shared" si="12"/>
+        <v>6.25</v>
+      </c>
+      <c r="S75">
+        <f t="shared" si="13"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>94</v>
       </c>
@@ -3964,12 +7631,36 @@
       <c r="K76">
         <v>2.2000000000000002</v>
       </c>
-      <c r="L76" s="4">
-        <f t="shared" si="1"/>
+      <c r="L76" s="1">
+        <f t="shared" si="7"/>
         <v>48.256392903501755</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N76" s="8">
+        <f t="shared" si="8"/>
+        <v>3407.56</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="10"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="11"/>
+        <v>0.25</v>
+      </c>
+      <c r="R76">
+        <f t="shared" si="12"/>
+        <v>4.8400000000000007</v>
+      </c>
+      <c r="S76">
+        <f t="shared" si="13"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>45</v>
       </c>
@@ -4003,12 +7694,36 @@
       <c r="K77">
         <v>2.5</v>
       </c>
-      <c r="L77" s="4">
-        <f t="shared" si="1"/>
+      <c r="L77" s="1">
+        <f t="shared" si="7"/>
         <v>47.765246227442184</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N77" s="8">
+        <f t="shared" si="8"/>
+        <v>3829.3</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="9"/>
+        <v>0.7</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="10"/>
+        <v>2.5</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="11"/>
+        <v>0.48999999999999994</v>
+      </c>
+      <c r="R77">
+        <f t="shared" si="12"/>
+        <v>6.25</v>
+      </c>
+      <c r="S77">
+        <f t="shared" si="13"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>88</v>
       </c>
@@ -4042,12 +7757,36 @@
       <c r="K78">
         <v>2.5</v>
       </c>
-      <c r="L78" s="4">
-        <f t="shared" si="1"/>
+      <c r="L78" s="1">
+        <f t="shared" si="7"/>
         <v>47.765246227442184</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N78" s="8">
+        <f t="shared" si="8"/>
+        <v>3829.3</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="9"/>
+        <v>0.6</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="10"/>
+        <v>2.5</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="11"/>
+        <v>0.36</v>
+      </c>
+      <c r="R78">
+        <f t="shared" si="12"/>
+        <v>6.25</v>
+      </c>
+      <c r="S78">
+        <f t="shared" si="13"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>85</v>
       </c>
@@ -4081,12 +7820,36 @@
       <c r="K79">
         <v>0.5</v>
       </c>
-      <c r="L79" s="4">
-        <f t="shared" si="1"/>
+      <c r="L79" s="1">
+        <f t="shared" si="7"/>
         <v>39.70009238850006</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N79" s="8">
+        <f t="shared" si="8"/>
+        <v>730.95</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <f t="shared" si="12"/>
+        <v>0.25</v>
+      </c>
+      <c r="S79">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>69</v>
       </c>
@@ -4120,12 +7883,36 @@
       <c r="K80">
         <v>1.4</v>
       </c>
-      <c r="L80" s="4">
-        <f t="shared" si="1"/>
+      <c r="L80" s="1">
+        <f t="shared" si="7"/>
         <v>35.491804649254554</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N80" s="8">
+        <f t="shared" si="8"/>
+        <v>601.88</v>
+      </c>
+      <c r="O80">
+        <f t="shared" si="9"/>
+        <v>3.7</v>
+      </c>
+      <c r="P80">
+        <f t="shared" si="10"/>
+        <v>1.4</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" si="11"/>
+        <v>13.690000000000001</v>
+      </c>
+      <c r="R80">
+        <f t="shared" si="12"/>
+        <v>1.9599999999999997</v>
+      </c>
+      <c r="S80">
+        <f t="shared" si="13"/>
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>129</v>
       </c>
@@ -4159,12 +7946,36 @@
       <c r="K81">
         <v>2.8</v>
       </c>
-      <c r="L81" s="4">
-        <f t="shared" si="1"/>
+      <c r="L81" s="1">
+        <f t="shared" si="7"/>
         <v>33.44539379481489</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N81" s="8">
+        <f t="shared" si="8"/>
+        <v>3552.44</v>
+      </c>
+      <c r="O81">
+        <f t="shared" si="9"/>
+        <v>0.7</v>
+      </c>
+      <c r="P81">
+        <f t="shared" si="10"/>
+        <v>2.8</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" si="11"/>
+        <v>0.48999999999999994</v>
+      </c>
+      <c r="R81">
+        <f t="shared" si="12"/>
+        <v>7.839999999999999</v>
+      </c>
+      <c r="S81">
+        <f t="shared" si="13"/>
+        <v>1.9599999999999997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>16</v>
       </c>
@@ -4198,12 +8009,36 @@
       <c r="K82">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L82" s="4">
-        <f t="shared" si="1"/>
+      <c r="L82" s="1">
+        <f t="shared" si="7"/>
         <v>31.345686507751328</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N82" s="8">
+        <f t="shared" si="8"/>
+        <v>442.67</v>
+      </c>
+      <c r="O82">
+        <f t="shared" si="9"/>
+        <v>3.7</v>
+      </c>
+      <c r="P82">
+        <f t="shared" si="10"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="11"/>
+        <v>13.690000000000001</v>
+      </c>
+      <c r="R82">
+        <f t="shared" si="12"/>
+        <v>1.2100000000000002</v>
+      </c>
+      <c r="S82">
+        <f t="shared" si="13"/>
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>33</v>
       </c>
@@ -4237,12 +8072,36 @@
       <c r="K83">
         <v>2.1</v>
       </c>
-      <c r="L83" s="4">
-        <f t="shared" si="1"/>
+      <c r="L83" s="1">
+        <f t="shared" si="7"/>
         <v>27.594372353936276</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N83" s="8">
+        <f t="shared" si="8"/>
+        <v>787.06</v>
+      </c>
+      <c r="O83">
+        <f t="shared" si="9"/>
+        <v>3.7</v>
+      </c>
+      <c r="P83">
+        <f t="shared" si="10"/>
+        <v>2.1</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="11"/>
+        <v>13.690000000000001</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="12"/>
+        <v>4.41</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="13"/>
+        <v>7.7700000000000005</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>34</v>
       </c>
@@ -4276,12 +8135,36 @@
       <c r="K84">
         <v>0.3</v>
       </c>
-      <c r="L84" s="4">
-        <f t="shared" si="1"/>
+      <c r="L84" s="1">
+        <f t="shared" si="7"/>
         <v>13.523922866766465</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N84" s="8">
+        <f t="shared" si="8"/>
+        <v>239.01</v>
+      </c>
+      <c r="O84">
+        <f t="shared" si="9"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P84">
+        <f t="shared" si="10"/>
+        <v>0.3</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="11"/>
+        <v>4.8400000000000007</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="12"/>
+        <v>0.09</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="13"/>
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>147</v>
       </c>
@@ -4315,12 +8198,36 @@
       <c r="K85">
         <v>0.2</v>
       </c>
-      <c r="L85" s="4">
-        <f t="shared" si="1"/>
+      <c r="L85" s="1">
+        <f t="shared" si="7"/>
         <v>6.4737372013029919</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N85" s="8">
+        <f t="shared" si="8"/>
+        <v>135.86000000000001</v>
+      </c>
+      <c r="O85">
+        <f t="shared" si="9"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="P85">
+        <f t="shared" si="10"/>
+        <v>0.2</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="11"/>
+        <v>5.2899999999999991</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="12"/>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="13"/>
+        <v>0.45999999999999996</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>27</v>
       </c>
@@ -4354,12 +8261,36 @@
       <c r="K86">
         <v>2.1</v>
       </c>
-      <c r="L86" s="4">
-        <f t="shared" si="1"/>
+      <c r="L86" s="1">
+        <f t="shared" si="7"/>
         <v>5.811417106780282</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N86" s="8">
+        <f t="shared" si="8"/>
+        <v>1305.3800000000001</v>
+      </c>
+      <c r="O86">
+        <f t="shared" si="9"/>
+        <v>0.9</v>
+      </c>
+      <c r="P86">
+        <f t="shared" si="10"/>
+        <v>2.1</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="11"/>
+        <v>0.81</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="12"/>
+        <v>4.41</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="13"/>
+        <v>1.8900000000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>52</v>
       </c>
@@ -4393,12 +8324,36 @@
       <c r="K87">
         <v>2.1</v>
       </c>
-      <c r="L87" s="4">
-        <f t="shared" si="1"/>
+      <c r="L87" s="1">
+        <f t="shared" si="7"/>
         <v>2.8499958201613702</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N87" s="8">
+        <f t="shared" si="8"/>
+        <v>882.12</v>
+      </c>
+      <c r="O87">
+        <f t="shared" si="9"/>
+        <v>0.4</v>
+      </c>
+      <c r="P87">
+        <f t="shared" si="10"/>
+        <v>2.1</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="11"/>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="12"/>
+        <v>4.41</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="13"/>
+        <v>0.84000000000000008</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>101</v>
       </c>
@@ -4432,12 +8387,36 @@
       <c r="K88">
         <v>1.9</v>
       </c>
-      <c r="L88" s="4">
-        <f t="shared" si="1"/>
+      <c r="L88" s="1">
+        <f t="shared" si="7"/>
         <v>2.8385352224433298</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N88" s="8">
+        <f t="shared" si="8"/>
+        <v>806.42</v>
+      </c>
+      <c r="O88">
+        <f t="shared" si="9"/>
+        <v>0.3</v>
+      </c>
+      <c r="P88">
+        <f t="shared" si="10"/>
+        <v>1.9</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="11"/>
+        <v>0.09</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="12"/>
+        <v>3.61</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="13"/>
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>81</v>
       </c>
@@ -4471,12 +8450,36 @@
       <c r="K89">
         <v>1.9</v>
       </c>
-      <c r="L89" s="4">
-        <f t="shared" si="1"/>
+      <c r="L89" s="1">
+        <f t="shared" si="7"/>
         <v>2.8385352224433298</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N89" s="8">
+        <f t="shared" si="8"/>
+        <v>806.42</v>
+      </c>
+      <c r="O89">
+        <f t="shared" si="9"/>
+        <v>0.4</v>
+      </c>
+      <c r="P89">
+        <f t="shared" si="10"/>
+        <v>1.9</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="11"/>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="12"/>
+        <v>3.61</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="13"/>
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>142</v>
       </c>
@@ -4510,12 +8513,36 @@
       <c r="K90">
         <v>1.9</v>
       </c>
-      <c r="L90" s="4">
-        <f t="shared" si="1"/>
+      <c r="L90" s="1">
+        <f t="shared" si="7"/>
         <v>2.7279582826549911</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N90" s="8">
+        <f t="shared" si="8"/>
+        <v>791.03</v>
+      </c>
+      <c r="O90">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P90">
+        <f t="shared" si="10"/>
+        <v>1.9</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="12"/>
+        <v>3.61</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>121</v>
       </c>
@@ -4549,12 +8576,36 @@
       <c r="K91">
         <v>2.2999999999999998</v>
       </c>
-      <c r="L91" s="4">
-        <f t="shared" si="1"/>
+      <c r="L91" s="1">
+        <f t="shared" si="7"/>
         <v>2.6257112417449537</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N91" s="8">
+        <f t="shared" si="8"/>
+        <v>922.81</v>
+      </c>
+      <c r="O91">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P91">
+        <f t="shared" si="10"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="12"/>
+        <v>5.2899999999999991</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>54</v>
       </c>
@@ -4588,12 +8639,36 @@
       <c r="K92">
         <v>2.5</v>
       </c>
-      <c r="L92" s="4">
-        <f t="shared" si="1"/>
+      <c r="L92" s="1">
+        <f t="shared" si="7"/>
         <v>2.0079202607527762</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N92" s="8">
+        <f t="shared" si="8"/>
+        <v>858.91</v>
+      </c>
+      <c r="O92">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P92">
+        <f t="shared" si="10"/>
+        <v>2.5</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="12"/>
+        <v>6.25</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>76</v>
       </c>
@@ -4627,12 +8702,36 @@
       <c r="K93">
         <v>1.7</v>
       </c>
-      <c r="L93" s="4">
-        <f t="shared" si="1"/>
+      <c r="L93" s="1">
+        <f t="shared" si="7"/>
         <v>1.9503134012115311</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N93" s="8">
+        <f t="shared" si="8"/>
+        <v>608.67999999999995</v>
+      </c>
+      <c r="O93">
+        <f t="shared" si="9"/>
+        <v>0.9</v>
+      </c>
+      <c r="P93">
+        <f t="shared" si="10"/>
+        <v>1.7</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="11"/>
+        <v>0.81</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="12"/>
+        <v>2.8899999999999997</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="13"/>
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>125</v>
       </c>
@@ -4666,12 +8765,36 @@
       <c r="K94">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L94" s="4">
-        <f t="shared" si="1"/>
+      <c r="L94" s="1">
+        <f t="shared" si="7"/>
         <v>1.7710202535623942</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N94" s="8">
+        <f t="shared" si="8"/>
+        <v>371.62</v>
+      </c>
+      <c r="O94">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P94">
+        <f t="shared" si="10"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="12"/>
+        <v>1.2100000000000002</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>17</v>
       </c>
@@ -4705,12 +8828,36 @@
       <c r="K95">
         <v>2.2000000000000002</v>
       </c>
-      <c r="L95" s="4">
-        <f t="shared" si="1"/>
+      <c r="L95" s="1">
+        <f t="shared" si="7"/>
         <v>1.5092177622111582</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N95" s="8">
+        <f t="shared" si="8"/>
+        <v>674.05</v>
+      </c>
+      <c r="O95">
+        <f t="shared" si="9"/>
+        <v>0.1</v>
+      </c>
+      <c r="P95">
+        <f t="shared" si="10"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="11"/>
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="12"/>
+        <v>4.8400000000000007</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="13"/>
+        <v>0.22000000000000003</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>140</v>
       </c>
@@ -4744,12 +8891,36 @@
       <c r="K96">
         <v>2.6</v>
       </c>
-      <c r="L96" s="4">
-        <f t="shared" si="1"/>
+      <c r="L96" s="1">
+        <f t="shared" si="7"/>
         <v>0.66690371267965953</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N96" s="8">
+        <f t="shared" si="8"/>
+        <v>516.32000000000005</v>
+      </c>
+      <c r="O96">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P96">
+        <f t="shared" si="10"/>
+        <v>2.6</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="12"/>
+        <v>6.7600000000000007</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>13</v>
       </c>
@@ -4783,12 +8954,36 @@
       <c r="K97">
         <v>2.6</v>
       </c>
-      <c r="L97" s="4">
-        <f t="shared" si="1"/>
+      <c r="L97" s="1">
+        <f t="shared" si="7"/>
         <v>0.66690371267965953</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N97" s="8">
+        <f t="shared" si="8"/>
+        <v>516.32000000000005</v>
+      </c>
+      <c r="O97">
+        <f t="shared" si="9"/>
+        <v>0.1</v>
+      </c>
+      <c r="P97">
+        <f t="shared" si="10"/>
+        <v>2.6</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="11"/>
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="12"/>
+        <v>6.7600000000000007</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="13"/>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>83</v>
       </c>
@@ -4822,12 +9017,36 @@
       <c r="K98">
         <v>1.4</v>
       </c>
-      <c r="L98" s="4">
-        <f t="shared" si="1"/>
+      <c r="L98" s="1">
+        <f t="shared" si="7"/>
         <v>0.52954723819884975</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N98" s="8">
+        <f t="shared" si="8"/>
+        <v>262.41000000000003</v>
+      </c>
+      <c r="O98">
+        <f t="shared" si="9"/>
+        <v>0.4</v>
+      </c>
+      <c r="P98">
+        <f t="shared" si="10"/>
+        <v>1.4</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="11"/>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="12"/>
+        <v>1.9599999999999997</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="13"/>
+        <v>0.55999999999999994</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>141</v>
       </c>
@@ -4861,12 +9080,36 @@
       <c r="K99">
         <v>2.4</v>
       </c>
-      <c r="L99" s="4">
-        <f t="shared" si="1"/>
+      <c r="L99" s="1">
+        <f t="shared" si="7"/>
         <v>0.50840262014557491</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N99" s="8">
+        <f t="shared" si="8"/>
+        <v>419.28</v>
+      </c>
+      <c r="O99">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P99">
+        <f t="shared" si="10"/>
+        <v>2.4</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="12"/>
+        <v>5.76</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>68</v>
       </c>
@@ -4900,12 +9143,36 @@
       <c r="K100">
         <v>3</v>
       </c>
-      <c r="L100" s="4">
-        <f t="shared" si="1"/>
+      <c r="L100" s="1">
+        <f t="shared" si="7"/>
         <v>0.36997347689155763</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N100" s="8">
+        <f t="shared" si="8"/>
+        <v>429.68</v>
+      </c>
+      <c r="O100">
+        <f t="shared" si="9"/>
+        <v>0.4</v>
+      </c>
+      <c r="P100">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="11"/>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="13"/>
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>139</v>
       </c>
@@ -4939,12 +9206,36 @@
       <c r="K101">
         <v>2.7</v>
       </c>
-      <c r="L101" s="4">
-        <f t="shared" si="1"/>
+      <c r="L101" s="1">
+        <f t="shared" si="7"/>
         <v>0.1741967797128445</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N101" s="8">
+        <f t="shared" si="8"/>
+        <v>271.58</v>
+      </c>
+      <c r="O101">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P101">
+        <f t="shared" si="10"/>
+        <v>2.7</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="12"/>
+        <v>7.2900000000000009</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>120</v>
       </c>
@@ -4978,12 +9269,36 @@
       <c r="K102">
         <v>1.6</v>
       </c>
-      <c r="L102" s="4">
-        <f t="shared" si="1"/>
+      <c r="L102" s="1">
+        <f t="shared" si="7"/>
         <v>0.16614918261416664</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N102" s="8">
+        <f t="shared" si="8"/>
+        <v>167.99</v>
+      </c>
+      <c r="O102">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P102">
+        <f t="shared" si="10"/>
+        <v>1.6</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="12"/>
+        <v>2.5600000000000005</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>91</v>
       </c>
@@ -5017,12 +9332,36 @@
       <c r="K103">
         <v>2.8</v>
       </c>
-      <c r="L103" s="4">
-        <f t="shared" si="1"/>
+      <c r="L103" s="1">
+        <f t="shared" si="7"/>
         <v>0.14793367509627414</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N103" s="8">
+        <f t="shared" si="8"/>
+        <v>261.2</v>
+      </c>
+      <c r="O103">
+        <f t="shared" si="9"/>
+        <v>0.9</v>
+      </c>
+      <c r="P103">
+        <f t="shared" si="10"/>
+        <v>2.8</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="11"/>
+        <v>0.81</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="12"/>
+        <v>7.839999999999999</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="13"/>
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>133</v>
       </c>
@@ -5056,12 +9395,36 @@
       <c r="K104">
         <v>1.5</v>
       </c>
-      <c r="L104" s="4">
-        <f t="shared" si="1"/>
+      <c r="L104" s="1">
+        <f t="shared" si="7"/>
         <v>7.8824977399371624E-2</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N104" s="8">
+        <f t="shared" si="8"/>
+        <v>108.83</v>
+      </c>
+      <c r="O104">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P104">
+        <f t="shared" si="10"/>
+        <v>1.5</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="12"/>
+        <v>2.25</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>138</v>
       </c>
@@ -5095,12 +9458,36 @@
       <c r="K105">
         <v>2.8</v>
       </c>
-      <c r="L105" s="4">
-        <f t="shared" si="1"/>
+      <c r="L105" s="1">
+        <f t="shared" si="7"/>
         <v>4.7869136440380274E-2</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N105" s="8">
+        <f t="shared" si="8"/>
+        <v>146.97999999999999</v>
+      </c>
+      <c r="O105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P105">
+        <f t="shared" si="10"/>
+        <v>2.8</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="12"/>
+        <v>7.839999999999999</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>26</v>
       </c>
@@ -5134,12 +9521,36 @@
       <c r="K106">
         <v>1.5</v>
       </c>
-      <c r="L106" s="4">
-        <f t="shared" si="1"/>
+      <c r="L106" s="1">
+        <f t="shared" si="7"/>
         <v>3.1477510944840914E-2</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N106" s="8">
+        <f t="shared" si="8"/>
+        <v>69.33</v>
+      </c>
+      <c r="O106">
+        <f t="shared" si="9"/>
+        <v>0.9</v>
+      </c>
+      <c r="P106">
+        <f t="shared" si="10"/>
+        <v>1.5</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="11"/>
+        <v>0.81</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="12"/>
+        <v>2.25</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="13"/>
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>65</v>
       </c>
@@ -5173,12 +9584,36 @@
       <c r="K107">
         <v>2.6</v>
       </c>
-      <c r="L107" s="4">
-        <f t="shared" si="1"/>
+      <c r="L107" s="1">
+        <f t="shared" si="7"/>
         <v>5.6026458411288283E-4</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N107" s="8">
+        <f t="shared" si="8"/>
+        <v>14.82</v>
+      </c>
+      <c r="O107">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P107">
+        <f t="shared" si="10"/>
+        <v>2.6</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="12"/>
+        <v>6.7600000000000007</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="13"/>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>61</v>
       </c>
@@ -5212,12 +9647,36 @@
       <c r="K108">
         <v>0.1</v>
       </c>
-      <c r="L108" s="4">
-        <f t="shared" si="1"/>
+      <c r="L108" s="1">
+        <f t="shared" si="7"/>
         <v>-0.15271200845169619</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N108" s="8">
+        <f t="shared" si="8"/>
+        <v>-5.52</v>
+      </c>
+      <c r="O108">
+        <f t="shared" si="9"/>
+        <v>0.7</v>
+      </c>
+      <c r="P108">
+        <f t="shared" si="10"/>
+        <v>0.1</v>
+      </c>
+      <c r="Q108">
+        <f t="shared" si="11"/>
+        <v>0.48999999999999994</v>
+      </c>
+      <c r="R108">
+        <f t="shared" si="12"/>
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="S108">
+        <f t="shared" si="13"/>
+        <v>6.9999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>122</v>
       </c>
@@ -5251,12 +9710,36 @@
       <c r="K109">
         <v>1</v>
       </c>
-      <c r="L109" s="4">
-        <f t="shared" si="1"/>
+      <c r="L109" s="1">
+        <f t="shared" si="7"/>
         <v>-0.21145542493736752</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N109" s="8">
+        <f t="shared" si="8"/>
+        <v>-113.94</v>
+      </c>
+      <c r="O109">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P109">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Q109">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R109">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="S109">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>39</v>
       </c>
@@ -5290,12 +9773,36 @@
       <c r="K110">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L110" s="4">
-        <f t="shared" si="1"/>
+      <c r="L110" s="1">
+        <f t="shared" si="7"/>
         <v>-2.6471729713521825</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N110" s="8">
+        <f t="shared" si="8"/>
+        <v>-233.72</v>
+      </c>
+      <c r="O110">
+        <f t="shared" si="9"/>
+        <v>3.4</v>
+      </c>
+      <c r="P110">
+        <f t="shared" si="10"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q110">
+        <f t="shared" si="11"/>
+        <v>11.559999999999999</v>
+      </c>
+      <c r="R110">
+        <f t="shared" si="12"/>
+        <v>1.2100000000000002</v>
+      </c>
+      <c r="S110">
+        <f t="shared" si="13"/>
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>107</v>
       </c>
@@ -5329,12 +9836,36 @@
       <c r="K111">
         <v>3</v>
       </c>
-      <c r="L111" s="4">
-        <f t="shared" si="1"/>
+      <c r="L111" s="1">
+        <f t="shared" si="7"/>
         <v>-3.108611267672404</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N111" s="8">
+        <f t="shared" si="8"/>
+        <v>-1223.78</v>
+      </c>
+      <c r="O111">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P111">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="Q111">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R111">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="S111">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>128</v>
       </c>
@@ -5368,12 +9899,36 @@
       <c r="K112">
         <v>0.9</v>
       </c>
-      <c r="L112" s="4">
-        <f t="shared" si="1"/>
+      <c r="L112" s="1">
+        <f t="shared" si="7"/>
         <v>-3.3287755906879775</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N112" s="8">
+        <f t="shared" si="8"/>
+        <v>-441.79</v>
+      </c>
+      <c r="O112">
+        <f t="shared" si="9"/>
+        <v>0.3</v>
+      </c>
+      <c r="P112">
+        <f t="shared" si="10"/>
+        <v>0.9</v>
+      </c>
+      <c r="Q112">
+        <f t="shared" si="11"/>
+        <v>0.09</v>
+      </c>
+      <c r="R112">
+        <f t="shared" si="12"/>
+        <v>0.81</v>
+      </c>
+      <c r="S112">
+        <f t="shared" si="13"/>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>4</v>
       </c>
@@ -5407,12 +9962,36 @@
       <c r="K113">
         <v>1</v>
       </c>
-      <c r="L113" s="4">
-        <f t="shared" si="1"/>
+      <c r="L113" s="1">
+        <f t="shared" si="7"/>
         <v>-4.3964945506521351</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N113" s="8">
+        <f t="shared" si="8"/>
+        <v>-110.05</v>
+      </c>
+      <c r="O113">
+        <f t="shared" si="9"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="P113">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Q113">
+        <f t="shared" si="11"/>
+        <v>16.809999999999999</v>
+      </c>
+      <c r="R113">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="S113">
+        <f t="shared" si="13"/>
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>134</v>
       </c>
@@ -5446,12 +10025,36 @@
       <c r="K114">
         <v>2.9</v>
       </c>
-      <c r="L114" s="4">
-        <f t="shared" si="1"/>
+      <c r="L114" s="1">
+        <f t="shared" si="7"/>
         <v>-7.94867421777698</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N114" s="8">
+        <f t="shared" si="8"/>
+        <v>-1920.89</v>
+      </c>
+      <c r="O114">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P114">
+        <f t="shared" si="10"/>
+        <v>2.9</v>
+      </c>
+      <c r="Q114">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R114">
+        <f t="shared" si="12"/>
+        <v>8.41</v>
+      </c>
+      <c r="S114">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>106</v>
       </c>
@@ -5485,12 +10088,36 @@
       <c r="K115">
         <v>2.2000000000000002</v>
       </c>
-      <c r="L115" s="4">
-        <f t="shared" si="1"/>
+      <c r="L115" s="1">
+        <f t="shared" si="7"/>
         <v>-11.601265272719123</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N115" s="8">
+        <f t="shared" si="8"/>
+        <v>-1814.35</v>
+      </c>
+      <c r="O115">
+        <f t="shared" si="9"/>
+        <v>2.6</v>
+      </c>
+      <c r="P115">
+        <f t="shared" si="10"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q115">
+        <f t="shared" si="11"/>
+        <v>6.7600000000000007</v>
+      </c>
+      <c r="R115">
+        <f t="shared" si="12"/>
+        <v>4.8400000000000007</v>
+      </c>
+      <c r="S115">
+        <f t="shared" si="13"/>
+        <v>5.7200000000000006</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>40</v>
       </c>
@@ -5524,12 +10151,36 @@
       <c r="K116">
         <v>0.1</v>
       </c>
-      <c r="L116" s="4">
-        <f t="shared" si="1"/>
+      <c r="L116" s="1">
+        <f t="shared" si="7"/>
         <v>-13.933356406124092</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N116" s="8">
+        <f t="shared" si="8"/>
+        <v>-67.489999999999995</v>
+      </c>
+      <c r="O116">
+        <f t="shared" si="9"/>
+        <v>3.2</v>
+      </c>
+      <c r="P116">
+        <f t="shared" si="10"/>
+        <v>0.1</v>
+      </c>
+      <c r="Q116">
+        <f t="shared" si="11"/>
+        <v>10.240000000000002</v>
+      </c>
+      <c r="R116">
+        <f t="shared" si="12"/>
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="S116">
+        <f t="shared" si="13"/>
+        <v>0.32000000000000006</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>23</v>
       </c>
@@ -5563,12 +10214,36 @@
       <c r="K117">
         <v>0.1</v>
       </c>
-      <c r="L117" s="4">
-        <f t="shared" si="1"/>
+      <c r="L117" s="1">
+        <f t="shared" si="7"/>
         <v>-16.183528138405695</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N117" s="8">
+        <f t="shared" si="8"/>
+        <v>-99.11</v>
+      </c>
+      <c r="O117">
+        <f t="shared" si="9"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P117">
+        <f t="shared" si="10"/>
+        <v>0.1</v>
+      </c>
+      <c r="Q117">
+        <f t="shared" si="11"/>
+        <v>1.2100000000000002</v>
+      </c>
+      <c r="R117">
+        <f t="shared" si="12"/>
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="S117">
+        <f t="shared" si="13"/>
+        <v>0.11000000000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>124</v>
       </c>
@@ -5602,12 +10277,36 @@
       <c r="K118">
         <v>0.3</v>
       </c>
-      <c r="L118" s="4">
-        <f t="shared" si="1"/>
+      <c r="L118" s="1">
+        <f t="shared" si="7"/>
         <v>-19.415651076151786</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N118" s="8">
+        <f t="shared" si="8"/>
+        <v>-359.22</v>
+      </c>
+      <c r="O118">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P118">
+        <f t="shared" si="10"/>
+        <v>0.3</v>
+      </c>
+      <c r="Q118">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R118">
+        <f t="shared" si="12"/>
+        <v>0.09</v>
+      </c>
+      <c r="S118">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>60</v>
       </c>
@@ -5641,12 +10340,36 @@
       <c r="K119">
         <v>0.3</v>
       </c>
-      <c r="L119" s="4">
-        <f t="shared" si="1"/>
+      <c r="L119" s="1">
+        <f t="shared" si="7"/>
         <v>-19.415651076151786</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N119" s="8">
+        <f t="shared" si="8"/>
+        <v>-359.22</v>
+      </c>
+      <c r="O119">
+        <f t="shared" si="9"/>
+        <v>0.1</v>
+      </c>
+      <c r="P119">
+        <f t="shared" si="10"/>
+        <v>0.3</v>
+      </c>
+      <c r="Q119">
+        <f t="shared" si="11"/>
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="R119">
+        <f t="shared" si="12"/>
+        <v>0.09</v>
+      </c>
+      <c r="S119">
+        <f t="shared" si="13"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>43</v>
       </c>
@@ -5680,12 +10403,36 @@
       <c r="K120">
         <v>0.1</v>
       </c>
-      <c r="L120" s="4">
-        <f t="shared" si="1"/>
+      <c r="L120" s="1">
+        <f t="shared" si="7"/>
         <v>-20.446479675324674</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N120" s="8">
+        <f t="shared" si="8"/>
+        <v>-72.84</v>
+      </c>
+      <c r="O120">
+        <f t="shared" si="9"/>
+        <v>3.3</v>
+      </c>
+      <c r="P120">
+        <f t="shared" si="10"/>
+        <v>0.1</v>
+      </c>
+      <c r="Q120">
+        <f t="shared" si="11"/>
+        <v>10.889999999999999</v>
+      </c>
+      <c r="R120">
+        <f t="shared" si="12"/>
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="S120">
+        <f t="shared" si="13"/>
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>38</v>
       </c>
@@ -5719,12 +10466,36 @@
       <c r="K121">
         <v>2.7</v>
       </c>
-      <c r="L121" s="4">
-        <f t="shared" si="1"/>
+      <c r="L121" s="1">
+        <f t="shared" si="7"/>
         <v>-21.078298734222578</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N121" s="8">
+        <f t="shared" si="8"/>
+        <v>-2861.05</v>
+      </c>
+      <c r="O121">
+        <f t="shared" si="9"/>
+        <v>2.6</v>
+      </c>
+      <c r="P121">
+        <f t="shared" si="10"/>
+        <v>2.7</v>
+      </c>
+      <c r="Q121">
+        <f t="shared" si="11"/>
+        <v>6.7600000000000007</v>
+      </c>
+      <c r="R121">
+        <f t="shared" si="12"/>
+        <v>7.2900000000000009</v>
+      </c>
+      <c r="S121">
+        <f t="shared" si="13"/>
+        <v>7.0200000000000005</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>14</v>
       </c>
@@ -5758,12 +10529,36 @@
       <c r="K122">
         <v>1.9</v>
       </c>
-      <c r="L122" s="4">
-        <f t="shared" si="1"/>
+      <c r="L122" s="1">
+        <f t="shared" si="7"/>
         <v>-23.700259408753798</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N122" s="8">
+        <f t="shared" si="8"/>
+        <v>-2249.0700000000002</v>
+      </c>
+      <c r="O122">
+        <f t="shared" si="9"/>
+        <v>2.6</v>
+      </c>
+      <c r="P122">
+        <f t="shared" si="10"/>
+        <v>1.9</v>
+      </c>
+      <c r="Q122">
+        <f t="shared" si="11"/>
+        <v>6.7600000000000007</v>
+      </c>
+      <c r="R122">
+        <f t="shared" si="12"/>
+        <v>3.61</v>
+      </c>
+      <c r="S122">
+        <f t="shared" si="13"/>
+        <v>4.9399999999999995</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>79</v>
       </c>
@@ -5797,12 +10592,36 @@
       <c r="K123">
         <v>0.3</v>
       </c>
-      <c r="L123" s="4">
-        <f t="shared" si="1"/>
+      <c r="L123" s="1">
+        <f t="shared" si="7"/>
         <v>-27.03873565207984</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N123" s="8">
+        <f t="shared" si="8"/>
+        <v>-440.6</v>
+      </c>
+      <c r="O123">
+        <f t="shared" si="9"/>
+        <v>0.2</v>
+      </c>
+      <c r="P123">
+        <f t="shared" si="10"/>
+        <v>0.3</v>
+      </c>
+      <c r="Q123">
+        <f t="shared" si="11"/>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="R123">
+        <f t="shared" si="12"/>
+        <v>0.09</v>
+      </c>
+      <c r="S123">
+        <f t="shared" si="13"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>136</v>
       </c>
@@ -5836,12 +10655,36 @@
       <c r="K124">
         <v>1</v>
       </c>
-      <c r="L124" s="4">
-        <f t="shared" si="1"/>
+      <c r="L124" s="1">
+        <f t="shared" si="7"/>
         <v>-38.268696230123275</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N124" s="8">
+        <f t="shared" si="8"/>
+        <v>-327.84</v>
+      </c>
+      <c r="O124">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="P124">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Q124">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="R124">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="S124">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>74</v>
       </c>
@@ -5875,12 +10718,36 @@
       <c r="K125">
         <v>0.8</v>
       </c>
-      <c r="L125" s="4">
-        <f t="shared" si="1"/>
+      <c r="L125" s="1">
+        <f t="shared" si="7"/>
         <v>-45.239091378595944</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N125" s="8">
+        <f t="shared" si="8"/>
+        <v>-286.14</v>
+      </c>
+      <c r="O125">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="P125">
+        <f t="shared" si="10"/>
+        <v>0.8</v>
+      </c>
+      <c r="Q125">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="R125">
+        <f t="shared" si="12"/>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="S125">
+        <f t="shared" si="13"/>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>84</v>
       </c>
@@ -5914,12 +10781,36 @@
       <c r="K126">
         <v>0.2</v>
       </c>
-      <c r="L126" s="4">
-        <f t="shared" si="1"/>
+      <c r="L126" s="1">
+        <f t="shared" si="7"/>
         <v>-49.473830064367057</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N126" s="8">
+        <f t="shared" si="8"/>
+        <v>-282.70999999999998</v>
+      </c>
+      <c r="O126">
+        <f t="shared" si="9"/>
+        <v>0.1</v>
+      </c>
+      <c r="P126">
+        <f t="shared" si="10"/>
+        <v>0.2</v>
+      </c>
+      <c r="Q126">
+        <f t="shared" si="11"/>
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="R126">
+        <f t="shared" si="12"/>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="S126">
+        <f t="shared" si="13"/>
+        <v>2.0000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>58</v>
       </c>
@@ -5953,12 +10844,36 @@
       <c r="K127">
         <v>0.1</v>
       </c>
-      <c r="L127" s="4">
-        <f t="shared" si="1"/>
+      <c r="L127" s="1">
+        <f t="shared" si="7"/>
         <v>-50.848658551149164</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N127" s="8">
+        <f t="shared" si="8"/>
+        <v>-145.78</v>
+      </c>
+      <c r="O127">
+        <f t="shared" si="9"/>
+        <v>0.1</v>
+      </c>
+      <c r="P127">
+        <f t="shared" si="10"/>
+        <v>0.1</v>
+      </c>
+      <c r="Q127">
+        <f t="shared" si="11"/>
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="R127">
+        <f t="shared" si="12"/>
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="S127">
+        <f t="shared" si="13"/>
+        <v>1.0000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>89</v>
       </c>
@@ -5992,12 +10907,36 @@
       <c r="K128">
         <v>2</v>
       </c>
-      <c r="L128" s="4">
-        <f t="shared" si="1"/>
+      <c r="L128" s="1">
+        <f t="shared" si="7"/>
         <v>-54.452835525353038</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N128" s="8">
+        <f t="shared" si="8"/>
+        <v>-766.25</v>
+      </c>
+      <c r="O128">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="P128">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="Q128">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="R128">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="S128">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1</v>
       </c>
@@ -6031,12 +10970,36 @@
       <c r="K129">
         <v>1.6</v>
       </c>
-      <c r="L129" s="4">
-        <f t="shared" si="1"/>
+      <c r="L129" s="1">
+        <f t="shared" si="7"/>
         <v>-58.821928776070209</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N129" s="8">
+        <f t="shared" si="8"/>
+        <v>-642.41999999999996</v>
+      </c>
+      <c r="O129">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="P129">
+        <f t="shared" si="10"/>
+        <v>1.6</v>
+      </c>
+      <c r="Q129">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="R129">
+        <f t="shared" si="12"/>
+        <v>2.5600000000000005</v>
+      </c>
+      <c r="S129">
+        <f t="shared" si="13"/>
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>48</v>
       </c>
@@ -6070,12 +11033,36 @@
       <c r="K130">
         <v>2.6</v>
       </c>
-      <c r="L130" s="4">
-        <f t="shared" si="1"/>
+      <c r="L130" s="1">
+        <f t="shared" si="7"/>
         <v>-73.821537428497521</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N130" s="8">
+        <f t="shared" si="8"/>
+        <v>-1146.24</v>
+      </c>
+      <c r="O130">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="P130">
+        <f t="shared" si="10"/>
+        <v>2.6</v>
+      </c>
+      <c r="Q130">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="R130">
+        <f t="shared" si="12"/>
+        <v>6.7600000000000007</v>
+      </c>
+      <c r="S130">
+        <f t="shared" si="13"/>
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>93</v>
       </c>
@@ -6109,12 +11096,36 @@
       <c r="K131">
         <v>2.7</v>
       </c>
-      <c r="L131" s="4">
-        <f t="shared" ref="L131:L149" si="2">((ABS(B131)*F131)/H131)</f>
+      <c r="L131" s="1">
+        <f t="shared" ref="L131:L149" si="14">((ABS(B131)*F131)/H131)</f>
         <v>-75.786132482606604</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N131" s="8">
+        <f t="shared" ref="N131:N149" si="15">B131</f>
+        <v>-3112.93</v>
+      </c>
+      <c r="O131">
+        <f t="shared" ref="O131:O149" si="16">J131</f>
+        <v>3.3</v>
+      </c>
+      <c r="P131">
+        <f t="shared" ref="P131:P149" si="17">K131</f>
+        <v>2.7</v>
+      </c>
+      <c r="Q131">
+        <f t="shared" ref="Q131:Q149" si="18">O131*O131</f>
+        <v>10.889999999999999</v>
+      </c>
+      <c r="R131">
+        <f t="shared" ref="R131:R149" si="19">P131*P131</f>
+        <v>7.2900000000000009</v>
+      </c>
+      <c r="S131">
+        <f t="shared" ref="S131:S149" si="20">O131*P131</f>
+        <v>8.91</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>49</v>
       </c>
@@ -6148,12 +11159,36 @@
       <c r="K132">
         <v>0</v>
       </c>
-      <c r="L132" s="4">
-        <f t="shared" si="2"/>
+      <c r="L132" s="1">
+        <f t="shared" si="14"/>
         <v>-79.804978671775231</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N132" s="8">
+        <f t="shared" si="15"/>
+        <v>-2.59</v>
+      </c>
+      <c r="O132">
+        <f t="shared" si="16"/>
+        <v>3.4</v>
+      </c>
+      <c r="P132">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q132">
+        <f t="shared" si="18"/>
+        <v>11.559999999999999</v>
+      </c>
+      <c r="R132">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="S132">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>112</v>
       </c>
@@ -6187,12 +11222,36 @@
       <c r="K133">
         <v>2.9</v>
       </c>
-      <c r="L133" s="4">
-        <f t="shared" si="2"/>
+      <c r="L133" s="1">
+        <f t="shared" si="14"/>
         <v>-89.848333490874893</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N133" s="8">
+        <f t="shared" si="15"/>
+        <v>-1395.68</v>
+      </c>
+      <c r="O133">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="P133">
+        <f t="shared" si="17"/>
+        <v>2.9</v>
+      </c>
+      <c r="Q133">
+        <f t="shared" si="18"/>
+        <v>16</v>
+      </c>
+      <c r="R133">
+        <f t="shared" si="19"/>
+        <v>8.41</v>
+      </c>
+      <c r="S133">
+        <f t="shared" si="20"/>
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>100</v>
       </c>
@@ -6226,12 +11285,36 @@
       <c r="K134">
         <v>1.8</v>
       </c>
-      <c r="L134" s="4">
-        <f t="shared" si="2"/>
+      <c r="L134" s="1">
+        <f t="shared" si="14"/>
         <v>-99.20899956577982</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N134" s="8">
+        <f t="shared" si="15"/>
+        <v>-2599.5700000000002</v>
+      </c>
+      <c r="O134">
+        <f t="shared" si="16"/>
+        <v>3.2</v>
+      </c>
+      <c r="P134">
+        <f t="shared" si="17"/>
+        <v>1.8</v>
+      </c>
+      <c r="Q134">
+        <f t="shared" si="18"/>
+        <v>10.240000000000002</v>
+      </c>
+      <c r="R134">
+        <f t="shared" si="19"/>
+        <v>3.24</v>
+      </c>
+      <c r="S134">
+        <f t="shared" si="20"/>
+        <v>5.7600000000000007</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>64</v>
       </c>
@@ -6265,12 +11348,36 @@
       <c r="K135">
         <v>0.8</v>
       </c>
-      <c r="L135" s="4">
-        <f t="shared" si="2"/>
+      <c r="L135" s="1">
+        <f t="shared" si="14"/>
         <v>-114.43795003919089</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N135" s="8">
+        <f t="shared" si="15"/>
+        <v>-2159.92</v>
+      </c>
+      <c r="O135">
+        <f t="shared" si="16"/>
+        <v>2.7</v>
+      </c>
+      <c r="P135">
+        <f t="shared" si="17"/>
+        <v>0.8</v>
+      </c>
+      <c r="Q135">
+        <f t="shared" si="18"/>
+        <v>7.2900000000000009</v>
+      </c>
+      <c r="R135">
+        <f t="shared" si="19"/>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="S135">
+        <f t="shared" si="20"/>
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>115</v>
       </c>
@@ -6304,12 +11411,36 @@
       <c r="K136">
         <v>2.8</v>
       </c>
-      <c r="L136" s="4">
-        <f t="shared" si="2"/>
+      <c r="L136" s="1">
+        <f t="shared" si="14"/>
         <v>-140.38561891517722</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N136" s="8">
+        <f t="shared" si="15"/>
+        <v>-4540.42</v>
+      </c>
+      <c r="O136">
+        <f t="shared" si="16"/>
+        <v>3.2</v>
+      </c>
+      <c r="P136">
+        <f t="shared" si="17"/>
+        <v>2.8</v>
+      </c>
+      <c r="Q136">
+        <f t="shared" si="18"/>
+        <v>10.240000000000002</v>
+      </c>
+      <c r="R136">
+        <f t="shared" si="19"/>
+        <v>7.839999999999999</v>
+      </c>
+      <c r="S136">
+        <f t="shared" si="20"/>
+        <v>8.9599999999999991</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>119</v>
       </c>
@@ -6343,12 +11474,36 @@
       <c r="K137">
         <v>2.6</v>
       </c>
-      <c r="L137" s="4">
-        <f t="shared" si="2"/>
+      <c r="L137" s="1">
+        <f t="shared" si="14"/>
         <v>-168.57152428753488</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N137" s="8">
+        <f t="shared" si="15"/>
+        <v>-6991.97</v>
+      </c>
+      <c r="O137">
+        <f t="shared" si="16"/>
+        <v>2.7</v>
+      </c>
+      <c r="P137">
+        <f t="shared" si="17"/>
+        <v>2.6</v>
+      </c>
+      <c r="Q137">
+        <f t="shared" si="18"/>
+        <v>7.2900000000000009</v>
+      </c>
+      <c r="R137">
+        <f t="shared" si="19"/>
+        <v>6.7600000000000007</v>
+      </c>
+      <c r="S137">
+        <f t="shared" si="20"/>
+        <v>7.0200000000000005</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>47</v>
       </c>
@@ -6382,12 +11537,36 @@
       <c r="K138">
         <v>0.5</v>
       </c>
-      <c r="L138" s="4">
-        <f t="shared" si="2"/>
+      <c r="L138" s="1">
+        <f t="shared" si="14"/>
         <v>-169.67801018326591</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N138" s="8">
+        <f t="shared" si="15"/>
+        <v>-1169.24</v>
+      </c>
+      <c r="O138">
+        <f t="shared" si="16"/>
+        <v>3.1</v>
+      </c>
+      <c r="P138">
+        <f t="shared" si="17"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q138">
+        <f t="shared" si="18"/>
+        <v>9.6100000000000012</v>
+      </c>
+      <c r="R138">
+        <f t="shared" si="19"/>
+        <v>0.25</v>
+      </c>
+      <c r="S138">
+        <f t="shared" si="20"/>
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>127</v>
       </c>
@@ -6421,12 +11600,36 @@
       <c r="K139">
         <v>0.3</v>
       </c>
-      <c r="L139" s="4">
-        <f t="shared" si="2"/>
+      <c r="L139" s="1">
+        <f t="shared" si="14"/>
         <v>-176.66119673027728</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N139" s="8">
+        <f t="shared" si="15"/>
+        <v>-712.44</v>
+      </c>
+      <c r="O139">
+        <f t="shared" si="16"/>
+        <v>3.1</v>
+      </c>
+      <c r="P139">
+        <f t="shared" si="17"/>
+        <v>0.3</v>
+      </c>
+      <c r="Q139">
+        <f t="shared" si="18"/>
+        <v>9.6100000000000012</v>
+      </c>
+      <c r="R139">
+        <f t="shared" si="19"/>
+        <v>0.09</v>
+      </c>
+      <c r="S139">
+        <f t="shared" si="20"/>
+        <v>0.92999999999999994</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>103</v>
       </c>
@@ -6460,12 +11663,36 @@
       <c r="K140">
         <v>2.8</v>
       </c>
-      <c r="L140" s="4">
-        <f t="shared" si="2"/>
+      <c r="L140" s="1">
+        <f t="shared" si="14"/>
         <v>-180.98528509412779</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N140" s="8">
+        <f t="shared" si="15"/>
+        <v>-7600.66</v>
+      </c>
+      <c r="O140">
+        <f t="shared" si="16"/>
+        <v>2.7</v>
+      </c>
+      <c r="P140">
+        <f t="shared" si="17"/>
+        <v>2.8</v>
+      </c>
+      <c r="Q140">
+        <f t="shared" si="18"/>
+        <v>7.2900000000000009</v>
+      </c>
+      <c r="R140">
+        <f t="shared" si="19"/>
+        <v>7.839999999999999</v>
+      </c>
+      <c r="S140">
+        <f t="shared" si="20"/>
+        <v>7.56</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>35</v>
       </c>
@@ -6499,12 +11726,36 @@
       <c r="K141">
         <v>1.8</v>
       </c>
-      <c r="L141" s="4">
-        <f t="shared" si="2"/>
+      <c r="L141" s="1">
+        <f t="shared" si="14"/>
         <v>-186.95384964778995</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N141" s="8">
+        <f t="shared" si="15"/>
+        <v>-4587.3900000000003</v>
+      </c>
+      <c r="O141">
+        <f t="shared" si="16"/>
+        <v>2.9</v>
+      </c>
+      <c r="P141">
+        <f t="shared" si="17"/>
+        <v>1.8</v>
+      </c>
+      <c r="Q141">
+        <f t="shared" si="18"/>
+        <v>8.41</v>
+      </c>
+      <c r="R141">
+        <f t="shared" si="19"/>
+        <v>3.24</v>
+      </c>
+      <c r="S141">
+        <f t="shared" si="20"/>
+        <v>5.22</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>92</v>
       </c>
@@ -6538,12 +11789,36 @@
       <c r="K142">
         <v>1.4</v>
       </c>
-      <c r="L142" s="4">
-        <f t="shared" si="2"/>
+      <c r="L142" s="1">
+        <f t="shared" si="14"/>
         <v>-197.17944654831371</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N142" s="8">
+        <f t="shared" si="15"/>
+        <v>-3863.12</v>
+      </c>
+      <c r="O142">
+        <f t="shared" si="16"/>
+        <v>2.9</v>
+      </c>
+      <c r="P142">
+        <f t="shared" si="17"/>
+        <v>1.4</v>
+      </c>
+      <c r="Q142">
+        <f t="shared" si="18"/>
+        <v>8.41</v>
+      </c>
+      <c r="R142">
+        <f t="shared" si="19"/>
+        <v>1.9599999999999997</v>
+      </c>
+      <c r="S142">
+        <f t="shared" si="20"/>
+        <v>4.0599999999999996</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>62</v>
       </c>
@@ -6577,12 +11852,36 @@
       <c r="K143">
         <v>2</v>
       </c>
-      <c r="L143" s="4">
-        <f t="shared" si="2"/>
+      <c r="L143" s="1">
+        <f t="shared" si="14"/>
         <v>-205.35855883851931</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N143" s="8">
+        <f t="shared" si="15"/>
+        <v>-5300.22</v>
+      </c>
+      <c r="O143">
+        <f t="shared" si="16"/>
+        <v>2.9</v>
+      </c>
+      <c r="P143">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="Q143">
+        <f t="shared" si="18"/>
+        <v>8.41</v>
+      </c>
+      <c r="R143">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="S143">
+        <f t="shared" si="20"/>
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>59</v>
       </c>
@@ -6616,12 +11915,36 @@
       <c r="K144">
         <v>1.3</v>
       </c>
-      <c r="L144" s="4">
-        <f t="shared" si="2"/>
+      <c r="L144" s="1">
+        <f t="shared" si="14"/>
         <v>-215.70861285517546</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N144" s="8">
+        <f t="shared" si="15"/>
+        <v>-4293.22</v>
+      </c>
+      <c r="O144">
+        <f t="shared" si="16"/>
+        <v>2.8</v>
+      </c>
+      <c r="P144">
+        <f t="shared" si="17"/>
+        <v>1.3</v>
+      </c>
+      <c r="Q144">
+        <f t="shared" si="18"/>
+        <v>7.839999999999999</v>
+      </c>
+      <c r="R144">
+        <f t="shared" si="19"/>
+        <v>1.6900000000000002</v>
+      </c>
+      <c r="S144">
+        <f t="shared" si="20"/>
+        <v>3.6399999999999997</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>110</v>
       </c>
@@ -6655,12 +11978,36 @@
       <c r="K145">
         <v>2.5</v>
       </c>
-      <c r="L145" s="4">
-        <f t="shared" si="2"/>
+      <c r="L145" s="1">
+        <f t="shared" si="14"/>
         <v>-222.79253562046819</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N145" s="8">
+        <f t="shared" si="15"/>
+        <v>-6494.27</v>
+      </c>
+      <c r="O145">
+        <f t="shared" si="16"/>
+        <v>2.9</v>
+      </c>
+      <c r="P145">
+        <f t="shared" si="17"/>
+        <v>2.5</v>
+      </c>
+      <c r="Q145">
+        <f t="shared" si="18"/>
+        <v>8.41</v>
+      </c>
+      <c r="R145">
+        <f t="shared" si="19"/>
+        <v>6.25</v>
+      </c>
+      <c r="S145">
+        <f t="shared" si="20"/>
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>31</v>
       </c>
@@ -6694,12 +12041,36 @@
       <c r="K146">
         <v>2.9</v>
       </c>
-      <c r="L146" s="4">
-        <f t="shared" si="2"/>
+      <c r="L146" s="1">
+        <f t="shared" si="14"/>
         <v>-229.90386121055474</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N146" s="8">
+        <f t="shared" si="15"/>
+        <v>-7285.31</v>
+      </c>
+      <c r="O146">
+        <f t="shared" si="16"/>
+        <v>2.9</v>
+      </c>
+      <c r="P146">
+        <f t="shared" si="17"/>
+        <v>2.9</v>
+      </c>
+      <c r="Q146">
+        <f t="shared" si="18"/>
+        <v>8.41</v>
+      </c>
+      <c r="R146">
+        <f t="shared" si="19"/>
+        <v>8.41</v>
+      </c>
+      <c r="S146">
+        <f t="shared" si="20"/>
+        <v>8.41</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>44</v>
       </c>
@@ -6733,12 +12104,36 @@
       <c r="K147">
         <v>2.2999999999999998</v>
       </c>
-      <c r="L147" s="4">
-        <f t="shared" si="2"/>
+      <c r="L147" s="1">
+        <f t="shared" si="14"/>
         <v>-255.29876916329837</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N147" s="8">
+        <f t="shared" si="15"/>
+        <v>-7337.22</v>
+      </c>
+      <c r="O147">
+        <f t="shared" si="16"/>
+        <v>2.8</v>
+      </c>
+      <c r="P147">
+        <f t="shared" si="17"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q147">
+        <f t="shared" si="18"/>
+        <v>7.839999999999999</v>
+      </c>
+      <c r="R147">
+        <f t="shared" si="19"/>
+        <v>5.2899999999999991</v>
+      </c>
+      <c r="S147">
+        <f t="shared" si="20"/>
+        <v>6.4399999999999995</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>30</v>
       </c>
@@ -6772,12 +12167,36 @@
       <c r="K148">
         <v>2.5</v>
       </c>
-      <c r="L148" s="4">
-        <f t="shared" si="2"/>
+      <c r="L148" s="1">
+        <f t="shared" si="14"/>
         <v>-292.22196827112901</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N148" s="8">
+        <f t="shared" si="15"/>
+        <v>-6773.77</v>
+      </c>
+      <c r="O148">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="P148">
+        <f t="shared" si="17"/>
+        <v>2.5</v>
+      </c>
+      <c r="Q148">
+        <f t="shared" si="18"/>
+        <v>9</v>
+      </c>
+      <c r="R148">
+        <f t="shared" si="19"/>
+        <v>6.25</v>
+      </c>
+      <c r="S148">
+        <f t="shared" si="20"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>123</v>
       </c>
@@ -6811,9 +12230,33 @@
       <c r="K149">
         <v>0</v>
       </c>
-      <c r="L149" s="4">
-        <f t="shared" si="2"/>
+      <c r="L149" s="1">
+        <f t="shared" si="14"/>
         <v>-747.09932045461278</v>
+      </c>
+      <c r="N149" s="8">
+        <f t="shared" si="15"/>
+        <v>-503.53</v>
+      </c>
+      <c r="O149">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P149">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q149">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R149">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="S149">
+        <f t="shared" si="20"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6821,21 +12264,34 @@
     <sortCondition descending="1" ref="L2:L149"/>
   </sortState>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A33E6FF2-511A-4EA1-B6B3-5E55BE485ABD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/OPTIMIZATION/optimization jan 2024 to aug 2025 -gbpusd and eurusd-1h.xlsx
+++ b/OPTIMIZATION/optimization jan 2024 to aug 2025 -gbpusd and eurusd-1h.xlsx
@@ -8,22 +8,48 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\BOTS\REHOBOAM\OPTIMIZATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AC04A6-9148-484E-B90F-03B2B4496699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46AF8BB-47E3-4C9F-B1BC-18750132CB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{2112105C-1B99-4D4F-85A4-5682E24BD8D2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="1" xr2:uid="{2112105C-1B99-4D4F-85A4-5682E24BD8D2}"/>
   </bookViews>
   <sheets>
     <sheet name="PREDICTOR" sheetId="4" r:id="rId1"/>
     <sheet name="Tester Optimizator Results" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">PREDICTOR!$B$26:$B$27</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">PREDICTOR!$B$28</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">'Tester Optimizator Results'!#REF!</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -780,7 +806,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -796,12 +822,11 @@
     <xf numFmtId="2" fontId="20" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -852,17 +877,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -885,21 +900,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1235,8 +1250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8D3A376-5C30-45C0-8A76-1B2BAD76ABFC}">
   <dimension ref="A1:I132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1257,48 +1272,48 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="11"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4">
         <v>0.2585173770811891</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5">
         <v>6.683123425293773E-2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6">
         <v>3.3973179120998918E-2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7">
         <v>5413.3769607743543</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>148</v>
       </c>
     </row>
@@ -1308,272 +1323,270 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12">
         <v>5</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12">
         <v>298019150.70274067</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12">
         <v>59603830.140548132</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12">
         <v>2.0339376139148353</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12">
         <v>7.7395373962280301E-2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13">
         <v>142</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13">
         <v>4161260316.9608469</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13">
         <v>29304650.119442582</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <v>147</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="9">
         <v>4459279467.6635876</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17">
         <v>-1747.5042403536625</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17">
         <v>1929.223133204943</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17">
         <v>-0.90580721860337743</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17">
         <v>0.3665722893580392</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17">
         <v>-5561.2137392440209</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17">
         <v>2066.2052585366964</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17">
         <v>-5561.2137392440209</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17">
         <v>2066.2052585366964</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18">
         <v>1886.9718673468146</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18">
         <v>1183.4309246223781</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18">
         <v>1.5944926130343686</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18">
         <v>0.11304910383526086</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18">
         <v>-452.44739465180055</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18">
         <v>4226.3911293454294</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18">
         <v>-452.44739465180055</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18">
         <v>4226.3911293454294</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19">
         <v>4155.5956874526391</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19">
         <v>2181.7269398833596</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19">
         <v>1.904727677641826</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19">
         <v>5.8837602271058102E-2</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19">
         <v>-157.2661124137594</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19">
         <v>8468.4574873190377</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19">
         <v>-157.2661124137594</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19">
         <v>8468.4574873190377</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20">
         <v>-439.75003891519623</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20">
         <v>216.89429973812076</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20">
         <v>-2.0274854592589691</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20">
         <v>4.4483556194091528E-2</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20">
         <v>-868.50907509381364</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20">
         <v>-10.991002736578821</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20">
         <v>-868.50907509381364</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20">
         <v>-10.991002736578821</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21">
         <v>-1026.6474885853411</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21">
         <v>669.59847197626073</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21">
         <v>-1.5332285415097824</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21">
         <v>0.12744451890216346</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21">
         <v>-2350.3171093077763</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21">
         <v>297.02213213709433</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21">
         <v>-2350.3171093077763</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21">
         <v>297.02213213709433</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="9">
         <v>-104.37110559978575</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="9">
         <v>340.36149674638233</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="9">
         <v>-0.30664780416557236</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="9">
         <v>0.75956065138194939</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="9">
         <v>-777.20145417736853</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="9">
         <v>568.45924297779698</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="9">
         <v>-777.20145417736853</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="9">
         <v>568.45924297779698</v>
       </c>
     </row>
@@ -1587,7 +1600,7 @@
         <v>48</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>1.9168918425164101</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1595,16 +1608,16 @@
         <v>49</v>
       </c>
       <c r="B27">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="13" t="s">
+        <v>1.9264274665800236</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="13" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="15">
+      <c r="B28" s="14">
         <f>B17+(B18*B26)+(B19*B27)+(B20*B26*B26)+(B21*B27*B27)+(B22*B26*B27)</f>
-        <v>3269.7127616786984</v>
+        <v>4063.7885699801864</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -1626,7 +1639,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f>$B$17+($B$18*B32)+($B$19*C32)+($B$20*B32*B32)+($B$21*C32*C32)+($B$22*B32*C32)</f>
+        <f t="shared" ref="A32:A63" si="0">$B$17+($B$18*B32)+($B$19*C32)+($B$20*B32*B32)+($B$21*C32*C32)+($B$22*B32*C32)</f>
         <v>4062.8993482731344</v>
       </c>
       <c r="B32">
@@ -1638,7 +1651,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f>$B$17+($B$18*B33)+($B$19*C33)+($B$20*B33*B33)+($B$21*C33*C33)+($B$22*B33*C33)</f>
+        <f t="shared" si="0"/>
         <v>4054.5563368439543</v>
       </c>
       <c r="B33">
@@ -1650,7 +1663,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f>$B$17+($B$18*B34)+($B$19*C34)+($B$20*B34*B34)+($B$21*C34*C34)+($B$22*B34*C34)</f>
+        <f t="shared" si="0"/>
         <v>4039.8269870403083</v>
       </c>
       <c r="B34">
@@ -1662,7 +1675,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f>$B$17+($B$18*B35)+($B$19*C35)+($B$20*B35*B35)+($B$21*C35*C35)+($B$22*B35*C35)</f>
+        <f t="shared" si="0"/>
         <v>4014.7979527527655</v>
       </c>
       <c r="B35">
@@ -1674,7 +1687,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f>$B$17+($B$18*B36)+($B$19*C36)+($B$20*B36*B36)+($B$21*C36*C36)+($B$22*B36*C36)</f>
+        <f t="shared" si="0"/>
         <v>3985.3392531454751</v>
       </c>
       <c r="B36">
@@ -1686,7 +1699,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f>$B$17+($B$18*B37)+($B$19*C37)+($B$20*B37*B37)+($B$21*C37*C37)+($B$22*B37*C37)</f>
+        <f t="shared" si="0"/>
         <v>3943.6241959995723</v>
       </c>
       <c r="B37">
@@ -1698,7 +1711,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f>$B$17+($B$18*B38)+($B$19*C38)+($B$20*B38*B38)+($B$21*C38*C38)+($B$22*B38*C38)</f>
+        <f t="shared" si="0"/>
         <v>3899.4361465886368</v>
       </c>
       <c r="B38">
@@ -1710,7 +1723,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f>$B$17+($B$18*B39)+($B$19*C39)+($B$20*B39*B39)+($B$21*C39*C39)+($B$22*B39*C39)</f>
+        <f t="shared" si="0"/>
         <v>3841.0350665843703</v>
       </c>
       <c r="B39">
@@ -1722,7 +1735,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f>$B$17+($B$18*B40)+($B$19*C40)+($B$20*B40*B40)+($B$21*C40*C40)+($B$22*B40*C40)</f>
+        <f t="shared" si="0"/>
         <v>3782.1176673697923</v>
       </c>
       <c r="B40">
@@ -1734,7 +1747,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f>$B$17+($B$18*B41)+($B$19*C41)+($B$20*B41*B41)+($B$21*C41*C41)+($B$22*B41*C41)</f>
+        <f t="shared" si="0"/>
         <v>3707.0305645071639</v>
       </c>
       <c r="B41">
@@ -1746,7 +1759,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f>$B$17+($B$18*B42)+($B$19*C42)+($B$20*B42*B42)+($B$21*C42*C42)+($B$22*B42*C42)</f>
+        <f t="shared" si="0"/>
         <v>3633.3838154889386</v>
       </c>
       <c r="B42">
@@ -1758,7 +1771,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <f>$B$17+($B$18*B43)+($B$19*C43)+($B$20*B43*B43)+($B$21*C43*C43)+($B$22*B43*C43)</f>
+        <f t="shared" si="0"/>
         <v>3541.6106897679515</v>
       </c>
       <c r="B43">
@@ -1770,7 +1783,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <f>$B$17+($B$18*B44)+($B$19*C44)+($B$20*B44*B44)+($B$21*C44*C44)+($B$22*B44*C44)</f>
+        <f t="shared" si="0"/>
         <v>3453.2345909460819</v>
       </c>
       <c r="B44">
@@ -1782,7 +1795,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <f>$B$17+($B$18*B45)+($B$19*C45)+($B$20*B45*B45)+($B$21*C45*C45)+($B$22*B45*C45)</f>
+        <f t="shared" si="0"/>
         <v>3344.7754423667325</v>
       </c>
       <c r="B45">
@@ -1794,7 +1807,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <f>$B$17+($B$18*B46)+($B$19*C46)+($B$20*B46*B46)+($B$21*C46*C46)+($B$22*B46*C46)</f>
+        <f t="shared" si="0"/>
         <v>3241.6699937412168</v>
       </c>
       <c r="B46">
@@ -1806,7 +1819,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <f>$B$17+($B$18*B47)+($B$19*C47)+($B$20*B47*B47)+($B$21*C47*C47)+($B$22*B47*C47)</f>
+        <f t="shared" si="0"/>
         <v>3116.5248223035069</v>
       </c>
       <c r="B47">
@@ -1818,7 +1831,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <f>$B$17+($B$18*B48)+($B$19*C48)+($B$20*B48*B48)+($B$21*C48*C48)+($B$22*B48*C48)</f>
+        <f t="shared" si="0"/>
         <v>2998.690023874346</v>
       </c>
       <c r="B48">
@@ -1830,7 +1843,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <f>$B$17+($B$18*B49)+($B$19*C49)+($B$20*B49*B49)+($B$21*C49*C49)+($B$22*B49*C49)</f>
+        <f t="shared" si="0"/>
         <v>2856.8588295782752</v>
       </c>
       <c r="B49">
@@ -1842,7 +1855,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <f>$B$17+($B$18*B50)+($B$19*C50)+($B$20*B50*B50)+($B$21*C50*C50)+($B$22*B50*C50)</f>
+        <f t="shared" si="0"/>
         <v>2724.2946813454682</v>
       </c>
       <c r="B50">
@@ -1854,7 +1867,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f>$B$17+($B$18*B51)+($B$19*C51)+($B$20*B51*B51)+($B$21*C51*C51)+($B$22*B51*C51)</f>
+        <f t="shared" si="0"/>
         <v>2565.7774641910364</v>
       </c>
       <c r="B51">
@@ -1866,7 +1879,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <f>$B$17+($B$18*B52)+($B$19*C52)+($B$20*B52*B52)+($B$21*C52*C52)+($B$22*B52*C52)</f>
+        <f t="shared" si="0"/>
         <v>2418.4839661545848</v>
       </c>
       <c r="B52">
@@ -1878,7 +1891,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <f>$B$17+($B$18*B53)+($B$19*C53)+($B$20*B53*B53)+($B$21*C53*C53)+($B$22*B53*C53)</f>
+        <f t="shared" si="0"/>
         <v>2243.280726141792</v>
       </c>
       <c r="B53">
@@ -1890,7 +1903,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <f>$B$17+($B$18*B54)+($B$19*C54)+($B$20*B54*B54)+($B$21*C54*C54)+($B$22*B54*C54)</f>
+        <f t="shared" si="0"/>
         <v>2081.2578783016938</v>
       </c>
       <c r="B54">
@@ -1902,7 +1915,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <f>$B$17+($B$18*B55)+($B$19*C55)+($B$20*B55*B55)+($B$21*C55*C55)+($B$22*B55*C55)</f>
+        <f t="shared" si="0"/>
         <v>1889.3686154305378</v>
       </c>
       <c r="B55">
@@ -1914,7 +1927,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <f>$B$17+($B$18*B56)+($B$19*C56)+($B$20*B56*B56)+($B$21*C56*C56)+($B$22*B56*C56)</f>
+        <f t="shared" si="0"/>
         <v>1712.6164177867965</v>
       </c>
       <c r="B56">
@@ -1926,7 +1939,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <f>$B$17+($B$18*B57)+($B$19*C57)+($B$20*B57*B57)+($B$21*C57*C57)+($B$22*B57*C57)</f>
+        <f t="shared" si="0"/>
         <v>1504.0411320572796</v>
       </c>
       <c r="B57">
@@ -1938,7 +1951,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
-        <f>$B$17+($B$18*B58)+($B$19*C58)+($B$20*B58*B58)+($B$21*C58*C58)+($B$22*B58*C58)</f>
+        <f t="shared" si="0"/>
         <v>1312.5595846098934</v>
       </c>
       <c r="B58">
@@ -1950,7 +1963,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <f>$B$17+($B$18*B59)+($B$19*C59)+($B$20*B59*B59)+($B$21*C59*C59)+($B$22*B59*C59)</f>
+        <f t="shared" si="0"/>
         <v>1087.2982760220154</v>
       </c>
       <c r="B59">
@@ -1962,7 +1975,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
-        <f>$B$17+($B$18*B60)+($B$19*C60)+($B$20*B60*B60)+($B$21*C60*C60)+($B$22*B60*C60)</f>
+        <f t="shared" si="0"/>
         <v>881.08737877098361</v>
       </c>
       <c r="B60">
@@ -1974,7 +1987,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <f>$B$17+($B$18*B61)+($B$19*C61)+($B$20*B61*B61)+($B$21*C61*C61)+($B$22*B61*C61)</f>
+        <f t="shared" si="0"/>
         <v>639.14004732474496</v>
       </c>
       <c r="B61">
@@ -1986,7 +1999,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
-        <f>$B$17+($B$18*B62)+($B$19*C62)+($B$20*B62*B62)+($B$21*C62*C62)+($B$22*B62*C62)</f>
+        <f t="shared" si="0"/>
         <v>418.19980027006756</v>
       </c>
       <c r="B62">
@@ -1998,7 +2011,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
-        <f>$B$17+($B$18*B63)+($B$19*C63)+($B$20*B63*B63)+($B$21*C63*C63)+($B$22*B63*C63)</f>
+        <f t="shared" si="0"/>
         <v>159.56644596546812</v>
       </c>
       <c r="B63">
@@ -2010,7 +2023,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
-        <f>$B$17+($B$18*B64)+($B$19*C64)+($B$20*B64*B64)+($B$21*C64*C64)+($B$22*B64*C64)</f>
+        <f t="shared" ref="A64:A95" si="1">$B$17+($B$18*B64)+($B$19*C64)+($B$20*B64*B64)+($B$21*C64*C64)+($B$22*B64*C64)</f>
         <v>-76.103150892855567</v>
       </c>
       <c r="B64">
@@ -2022,7 +2035,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
-        <f>$B$17+($B$18*B65)+($B$19*C65)+($B$20*B65*B65)+($B$21*C65*C65)+($B$22*B65*C65)</f>
+        <f t="shared" si="1"/>
         <v>-351.42252805581643</v>
       </c>
       <c r="B65">
@@ -2034,7 +2047,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
-        <f>$B$17+($B$18*B66)+($B$19*C66)+($B$20*B66*B66)+($B$21*C66*C66)+($B$22*B66*C66)</f>
+        <f t="shared" si="1"/>
         <v>-601.82147471778444</v>
       </c>
       <c r="B66">
@@ -2046,7 +2059,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
-        <f>$B$17+($B$18*B67)+($B$19*C67)+($B$20*B67*B67)+($B$21*C67*C67)+($B$22*B67*C67)</f>
+        <f t="shared" si="1"/>
         <v>-893.82687473910732</v>
       </c>
       <c r="B67">
@@ -2058,7 +2071,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f>$B$17+($B$18*B68)+($B$19*C68)+($B$20*B68*B68)+($B$21*C68*C68)+($B$22*B68*C68)</f>
+        <f t="shared" si="1"/>
         <v>-1158.95517120472</v>
       </c>
       <c r="B68">
@@ -2070,7 +2083,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
-        <f>$B$17+($B$18*B69)+($B$19*C69)+($B$20*B69*B69)+($B$21*C69*C69)+($B$22*B69*C69)</f>
+        <f t="shared" si="1"/>
         <v>-1467.6465940844023</v>
       </c>
       <c r="B69">
@@ -2082,7 +2095,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
-        <f>$B$17+($B$18*B70)+($B$19*C70)+($B$20*B70*B70)+($B$21*C70*C70)+($B$22*B70*C70)</f>
+        <f t="shared" si="1"/>
         <v>-1747.5042403536625</v>
       </c>
       <c r="B70">
@@ -2094,7 +2107,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
-        <f>$B$17+($B$18*B71)+($B$19*C71)+($B$20*B71*B71)+($B$21*C71*C71)+($B$22*B71*C71)</f>
+        <f t="shared" si="1"/>
         <v>-2072.8816860917073</v>
       </c>
       <c r="B71">
@@ -2106,7 +2119,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
-        <f>$B$17+($B$18*B72)+($B$19*C72)+($B$20*B72*B72)+($B$21*C72*C72)+($B$22*B72*C72)</f>
+        <f t="shared" si="1"/>
         <v>-2709.5321507610165</v>
       </c>
       <c r="B72">
@@ -2118,7 +2131,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
-        <f>$B$17+($B$18*B73)+($B$19*C73)+($B$20*B73*B73)+($B$21*C73*C73)+($B$22*B73*C73)</f>
+        <f t="shared" si="1"/>
         <v>-3377.5979880923314</v>
       </c>
       <c r="B73">
@@ -2130,7 +2143,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
-        <f>$B$17+($B$18*B74)+($B$19*C74)+($B$20*B74*B74)+($B$21*C74*C74)+($B$22*B74*C74)</f>
+        <f t="shared" si="1"/>
         <v>-4077.0791980856534</v>
       </c>
       <c r="B74">
@@ -2142,7 +2155,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
-        <f>$B$17+($B$18*B75)+($B$19*C75)+($B$20*B75*B75)+($B$21*C75*C75)+($B$22*B75*C75)</f>
+        <f t="shared" si="1"/>
         <v>-4807.9757807409842</v>
       </c>
       <c r="B75">
@@ -2154,7 +2167,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
-        <f>$B$17+($B$18*B76)+($B$19*C76)+($B$20*B76*B76)+($B$21*C76*C76)+($B$22*B76*C76)</f>
+        <f t="shared" si="1"/>
         <v>-5570.2877360583225</v>
       </c>
       <c r="B76">
@@ -2166,7 +2179,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
-        <f>$B$17+($B$18*B77)+($B$19*C77)+($B$20*B77*B77)+($B$21*C77*C77)+($B$22*B77*C77)</f>
+        <f t="shared" si="1"/>
         <v>-6364.0150640376605</v>
       </c>
       <c r="B77">
@@ -2178,7 +2191,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
-        <f>$B$17+($B$18*B78)+($B$19*C78)+($B$20*B78*B78)+($B$21*C78*C78)+($B$22*B78*C78)</f>
+        <f t="shared" si="1"/>
         <v>-7189.157764679012</v>
       </c>
       <c r="B78">
@@ -2190,7 +2203,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
-        <f>$B$17+($B$18*B79)+($B$19*C79)+($B$20*B79*B79)+($B$21*C79*C79)+($B$22*B79*C79)</f>
+        <f t="shared" si="1"/>
         <v>-8045.7158379823732</v>
       </c>
       <c r="B79">
@@ -2202,7 +2215,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
-        <f>$B$17+($B$18*B80)+($B$19*C80)+($B$20*B80*B80)+($B$21*C80*C80)+($B$22*B80*C80)</f>
+        <f t="shared" si="1"/>
         <v>-8933.6892839477259</v>
       </c>
       <c r="B80">
@@ -2214,7 +2227,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
-        <f>$B$17+($B$18*B81)+($B$19*C81)+($B$20*B81*B81)+($B$21*C81*C81)+($B$22*B81*C81)</f>
+        <f t="shared" si="1"/>
         <v>-9853.0781025751003</v>
       </c>
       <c r="B81">
@@ -2226,7 +2239,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
-        <f>$B$17+($B$18*B82)+($B$19*C82)+($B$20*B82*B82)+($B$21*C82*C82)+($B$22*B82*C82)</f>
+        <f t="shared" si="1"/>
         <v>-10803.882293864472</v>
       </c>
       <c r="B82">
@@ -2238,7 +2251,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
-        <f>$B$17+($B$18*B83)+($B$19*C83)+($B$20*B83*B83)+($B$21*C83*C83)+($B$22*B83*C83)</f>
+        <f t="shared" si="1"/>
         <v>-11786.101857815847</v>
       </c>
       <c r="B83">
@@ -2250,7 +2263,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
-        <f>$B$17+($B$18*B84)+($B$19*C84)+($B$20*B84*B84)+($B$21*C84*C84)+($B$22*B84*C84)</f>
+        <f t="shared" si="1"/>
         <v>-12799.73679442924</v>
       </c>
       <c r="B84">
@@ -2262,7 +2275,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
-        <f>$B$17+($B$18*B85)+($B$19*C85)+($B$20*B85*B85)+($B$21*C85*C85)+($B$22*B85*C85)</f>
+        <f t="shared" si="1"/>
         <v>-13844.787103704633</v>
       </c>
       <c r="B85">
@@ -2274,7 +2287,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
-        <f>$B$17+($B$18*B86)+($B$19*C86)+($B$20*B86*B86)+($B$21*C86*C86)+($B$22*B86*C86)</f>
+        <f t="shared" si="1"/>
         <v>-14921.252785642035</v>
       </c>
       <c r="B86">
@@ -2286,7 +2299,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
-        <f>$B$17+($B$18*B87)+($B$19*C87)+($B$20*B87*B87)+($B$21*C87*C87)+($B$22*B87*C87)</f>
+        <f t="shared" si="1"/>
         <v>-16029.13384024144</v>
       </c>
       <c r="B87">
@@ -2298,7 +2311,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
-        <f>$B$17+($B$18*B88)+($B$19*C88)+($B$20*B88*B88)+($B$21*C88*C88)+($B$22*B88*C88)</f>
+        <f t="shared" si="1"/>
         <v>-17168.430267502845</v>
       </c>
       <c r="B88">
@@ -2310,7 +2323,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
-        <f>$B$17+($B$18*B89)+($B$19*C89)+($B$20*B89*B89)+($B$21*C89*C89)+($B$22*B89*C89)</f>
+        <f t="shared" si="1"/>
         <v>-18339.142067426274</v>
       </c>
       <c r="B89">
@@ -2322,7 +2335,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
-        <f>$B$17+($B$18*B90)+($B$19*C90)+($B$20*B90*B90)+($B$21*C90*C90)+($B$22*B90*C90)</f>
+        <f t="shared" si="1"/>
         <v>-19541.269240011694</v>
       </c>
       <c r="B90">
@@ -2334,7 +2347,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
-        <f>$B$17+($B$18*B91)+($B$19*C91)+($B$20*B91*B91)+($B$21*C91*C91)+($B$22*B91*C91)</f>
+        <f t="shared" si="1"/>
         <v>-20774.811785259142</v>
       </c>
       <c r="B91">
@@ -2346,7 +2359,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
-        <f>$B$17+($B$18*B92)+($B$19*C92)+($B$20*B92*B92)+($B$21*C92*C92)+($B$22*B92*C92)</f>
+        <f t="shared" si="1"/>
         <v>-22039.769703168568</v>
       </c>
       <c r="B92">
@@ -2358,7 +2371,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
-        <f>$B$17+($B$18*B93)+($B$19*C93)+($B$20*B93*B93)+($B$21*C93*C93)+($B$22*B93*C93)</f>
+        <f t="shared" si="1"/>
         <v>-23336.14299374001</v>
       </c>
       <c r="B93">
@@ -2370,7 +2383,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
-        <f>$B$17+($B$18*B94)+($B$19*C94)+($B$20*B94*B94)+($B$21*C94*C94)+($B$22*B94*C94)</f>
+        <f t="shared" si="1"/>
         <v>-24663.931656973469</v>
       </c>
       <c r="B94">
@@ -2382,7 +2395,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
-        <f>$B$17+($B$18*B95)+($B$19*C95)+($B$20*B95*B95)+($B$21*C95*C95)+($B$22*B95*C95)</f>
+        <f t="shared" si="1"/>
         <v>-26023.135692868924</v>
       </c>
       <c r="B95">
@@ -2394,7 +2407,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
-        <f>$B$17+($B$18*B96)+($B$19*C96)+($B$20*B96*B96)+($B$21*C96*C96)+($B$22*B96*C96)</f>
+        <f t="shared" ref="A96:A127" si="2">$B$17+($B$18*B96)+($B$19*C96)+($B$20*B96*B96)+($B$21*C96*C96)+($B$22*B96*C96)</f>
         <v>-27413.755101426399</v>
       </c>
       <c r="B96">
@@ -2406,7 +2419,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
-        <f>$B$17+($B$18*B97)+($B$19*C97)+($B$20*B97*B97)+($B$21*C97*C97)+($B$22*B97*C97)</f>
+        <f t="shared" si="2"/>
         <v>-28835.789882645859</v>
       </c>
       <c r="B97">
@@ -2418,7 +2431,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
-        <f>$B$17+($B$18*B98)+($B$19*C98)+($B$20*B98*B98)+($B$21*C98*C98)+($B$22*B98*C98)</f>
+        <f t="shared" si="2"/>
         <v>-30289.240036527335</v>
       </c>
       <c r="B98">
@@ -2430,7 +2443,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
-        <f>$B$17+($B$18*B99)+($B$19*C99)+($B$20*B99*B99)+($B$21*C99*C99)+($B$22*B99*C99)</f>
+        <f t="shared" si="2"/>
         <v>-31774.105563070825</v>
       </c>
       <c r="B99">
@@ -2442,7 +2455,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
-        <f>$B$17+($B$18*B100)+($B$19*C100)+($B$20*B100*B100)+($B$21*C100*C100)+($B$22*B100*C100)</f>
+        <f t="shared" si="2"/>
         <v>-33290.386462276314</v>
       </c>
       <c r="B100">
@@ -2454,7 +2467,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
-        <f>$B$17+($B$18*B101)+($B$19*C101)+($B$20*B101*B101)+($B$21*C101*C101)+($B$22*B101*C101)</f>
+        <f t="shared" si="2"/>
         <v>-34838.08273414382</v>
       </c>
       <c r="B101">
@@ -2466,7 +2479,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
-        <f>$B$17+($B$18*B102)+($B$19*C102)+($B$20*B102*B102)+($B$21*C102*C102)+($B$22*B102*C102)</f>
+        <f t="shared" si="2"/>
         <v>-36417.194378673317</v>
       </c>
       <c r="B102">
@@ -2478,7 +2491,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
-        <f>$B$17+($B$18*B103)+($B$19*C103)+($B$20*B103*B103)+($B$21*C103*C103)+($B$22*B103*C103)</f>
+        <f t="shared" si="2"/>
         <v>-38027.721395864821</v>
       </c>
       <c r="B103">
@@ -2490,7 +2503,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
-        <f>$B$17+($B$18*B104)+($B$19*C104)+($B$20*B104*B104)+($B$21*C104*C104)+($B$22*B104*C104)</f>
+        <f t="shared" si="2"/>
         <v>-39669.663785718338</v>
       </c>
       <c r="B104">
@@ -2502,7 +2515,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
-        <f>$B$17+($B$18*B105)+($B$19*C105)+($B$20*B105*B105)+($B$21*C105*C105)+($B$22*B105*C105)</f>
+        <f t="shared" si="2"/>
         <v>-41343.021548233868</v>
       </c>
       <c r="B105">
@@ -2514,7 +2527,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
-        <f>$B$17+($B$18*B106)+($B$19*C106)+($B$20*B106*B106)+($B$21*C106*C106)+($B$22*B106*C106)</f>
+        <f t="shared" si="2"/>
         <v>-43047.794683411397</v>
       </c>
       <c r="B106">
@@ -2526,7 +2539,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
-        <f>$B$17+($B$18*B107)+($B$19*C107)+($B$20*B107*B107)+($B$21*C107*C107)+($B$22*B107*C107)</f>
+        <f t="shared" si="2"/>
         <v>-44783.983191250933</v>
       </c>
       <c r="B107">
@@ -2538,7 +2551,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
-        <f>$B$17+($B$18*B108)+($B$19*C108)+($B$20*B108*B108)+($B$21*C108*C108)+($B$22*B108*C108)</f>
+        <f t="shared" si="2"/>
         <v>-46551.587071752474</v>
       </c>
       <c r="B108">
@@ -2550,7 +2563,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
-        <f>$B$17+($B$18*B109)+($B$19*C109)+($B$20*B109*B109)+($B$21*C109*C109)+($B$22*B109*C109)</f>
+        <f t="shared" si="2"/>
         <v>-48350.606324916022</v>
       </c>
       <c r="B109">
@@ -2562,7 +2575,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
-        <f>$B$17+($B$18*B110)+($B$19*C110)+($B$20*B110*B110)+($B$21*C110*C110)+($B$22*B110*C110)</f>
+        <f t="shared" si="2"/>
         <v>-50181.040950741575</v>
       </c>
       <c r="B110">
@@ -2574,7 +2587,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
-        <f>$B$17+($B$18*B111)+($B$19*C111)+($B$20*B111*B111)+($B$21*C111*C111)+($B$22*B111*C111)</f>
+        <f t="shared" si="2"/>
         <v>-52042.89094922915</v>
       </c>
       <c r="B111">
@@ -2586,7 +2599,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
-        <f>$B$17+($B$18*B112)+($B$19*C112)+($B$20*B112*B112)+($B$21*C112*C112)+($B$22*B112*C112)</f>
+        <f t="shared" si="2"/>
         <v>-53936.156320378708</v>
       </c>
       <c r="B112">
@@ -2598,7 +2611,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
-        <f>$B$17+($B$18*B113)+($B$19*C113)+($B$20*B113*B113)+($B$21*C113*C113)+($B$22*B113*C113)</f>
+        <f t="shared" si="2"/>
         <v>-55860.837064190258</v>
       </c>
       <c r="B113">
@@ -2610,7 +2623,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
-        <f>$B$17+($B$18*B114)+($B$19*C114)+($B$20*B114*B114)+($B$21*C114*C114)+($B$22*B114*C114)</f>
+        <f t="shared" si="2"/>
         <v>-57816.933180663851</v>
       </c>
       <c r="B114">
@@ -2622,7 +2635,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
-        <f>$B$17+($B$18*B115)+($B$19*C115)+($B$20*B115*B115)+($B$21*C115*C115)+($B$22*B115*C115)</f>
+        <f t="shared" si="2"/>
         <v>-59804.444669799457</v>
       </c>
       <c r="B115">
@@ -2634,7 +2647,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
-        <f>$B$17+($B$18*B116)+($B$19*C116)+($B$20*B116*B116)+($B$21*C116*C116)+($B$22*B116*C116)</f>
+        <f t="shared" si="2"/>
         <v>-61823.37153159704</v>
       </c>
       <c r="B116">
@@ -2646,7 +2659,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
-        <f>$B$17+($B$18*B117)+($B$19*C117)+($B$20*B117*B117)+($B$21*C117*C117)+($B$22*B117*C117)</f>
+        <f t="shared" si="2"/>
         <v>-63873.713766056651</v>
       </c>
       <c r="B117">
@@ -2658,7 +2671,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
-        <f>$B$17+($B$18*B118)+($B$19*C118)+($B$20*B118*B118)+($B$21*C118*C118)+($B$22*B118*C118)</f>
+        <f t="shared" si="2"/>
         <v>-65955.471373178254</v>
       </c>
       <c r="B118">
@@ -2670,7 +2683,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
-        <f>$B$17+($B$18*B119)+($B$19*C119)+($B$20*B119*B119)+($B$21*C119*C119)+($B$22*B119*C119)</f>
+        <f t="shared" si="2"/>
         <v>-68068.644352961841</v>
       </c>
       <c r="B119">
@@ -2682,7 +2695,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
-        <f>$B$17+($B$18*B120)+($B$19*C120)+($B$20*B120*B120)+($B$21*C120*C120)+($B$22*B120*C120)</f>
+        <f t="shared" si="2"/>
         <v>-70213.232705407499</v>
       </c>
       <c r="B120">
@@ -2694,7 +2707,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
-        <f>$B$17+($B$18*B121)+($B$19*C121)+($B$20*B121*B121)+($B$21*C121*C121)+($B$22*B121*C121)</f>
+        <f t="shared" si="2"/>
         <v>-72389.236430515128</v>
       </c>
       <c r="B121">
@@ -2706,7 +2719,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
-        <f>$B$17+($B$18*B122)+($B$19*C122)+($B$20*B122*B122)+($B$21*C122*C122)+($B$22*B122*C122)</f>
+        <f t="shared" si="2"/>
         <v>-74596.65552828474</v>
       </c>
       <c r="B122">
@@ -2718,7 +2731,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
-        <f>$B$17+($B$18*B123)+($B$19*C123)+($B$20*B123*B123)+($B$21*C123*C123)+($B$22*B123*C123)</f>
+        <f t="shared" si="2"/>
         <v>-76835.489998716395</v>
       </c>
       <c r="B123">
@@ -2730,7 +2743,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
-        <f>$B$17+($B$18*B124)+($B$19*C124)+($B$20*B124*B124)+($B$21*C124*C124)+($B$22*B124*C124)</f>
+        <f t="shared" si="2"/>
         <v>-79105.73984181002</v>
       </c>
       <c r="B124">
@@ -2742,7 +2755,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
-        <f>$B$17+($B$18*B125)+($B$19*C125)+($B$20*B125*B125)+($B$21*C125*C125)+($B$22*B125*C125)</f>
+        <f t="shared" si="2"/>
         <v>-81407.405057565687</v>
       </c>
       <c r="B125">
@@ -2754,7 +2767,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
-        <f>$B$17+($B$18*B126)+($B$19*C126)+($B$20*B126*B126)+($B$21*C126*C126)+($B$22*B126*C126)</f>
+        <f t="shared" si="2"/>
         <v>-83740.485645983368</v>
       </c>
       <c r="B126">
@@ -2766,7 +2779,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
-        <f>$B$17+($B$18*B127)+($B$19*C127)+($B$20*B127*B127)+($B$21*C127*C127)+($B$22*B127*C127)</f>
+        <f t="shared" si="2"/>
         <v>-86104.981607063019</v>
       </c>
       <c r="B127">
@@ -2778,7 +2791,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
-        <f>$B$17+($B$18*B128)+($B$19*C128)+($B$20*B128*B128)+($B$21*C128*C128)+($B$22*B128*C128)</f>
+        <f t="shared" ref="A128:A159" si="3">$B$17+($B$18*B128)+($B$19*C128)+($B$20*B128*B128)+($B$21*C128*C128)+($B$22*B128*C128)</f>
         <v>-88500.892940804668</v>
       </c>
       <c r="B128">
@@ -2790,7 +2803,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
-        <f>$B$17+($B$18*B129)+($B$19*C129)+($B$20*B129*B129)+($B$21*C129*C129)+($B$22*B129*C129)</f>
+        <f t="shared" si="3"/>
         <v>-90928.219647208345</v>
       </c>
       <c r="B129">
@@ -2802,7 +2815,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
-        <f>$B$17+($B$18*B130)+($B$19*C130)+($B$20*B130*B130)+($B$21*C130*C130)+($B$22*B130*C130)</f>
+        <f t="shared" si="3"/>
         <v>-93386.96172627405</v>
       </c>
       <c r="B130">
@@ -2814,7 +2827,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
-        <f>$B$17+($B$18*B131)+($B$19*C131)+($B$20*B131*B131)+($B$21*C131*C131)+($B$22*B131*C131)</f>
+        <f t="shared" si="3"/>
         <v>-95877.119178001725</v>
       </c>
       <c r="B131">
@@ -2826,7 +2839,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
-        <f>$B$17+($B$18*B132)+($B$19*C132)+($B$20*B132*B132)+($B$21*C132*C132)+($B$22*B132*C132)</f>
+        <f t="shared" si="3"/>
         <v>-98398.692002391443</v>
       </c>
       <c r="B132">
@@ -2841,10 +2854,10 @@
     <sortCondition descending="1" ref="A32:A132"/>
   </sortState>
   <conditionalFormatting sqref="A32:A132">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2856,7 +2869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E0279F-C843-49B4-9FCB-9E222CFD0814}">
   <dimension ref="A1:S149"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="T1" sqref="T1:T1048576"/>
     </sheetView>
   </sheetViews>
@@ -12264,34 +12277,22 @@
     <sortCondition descending="1" ref="L2:L149"/>
   </sortState>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A33E6FF2-511A-4EA1-B6B3-5E55BE485ABD}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/OPTIMIZATION/optimization jan 2024 to aug 2025 -gbpusd and eurusd-1h.xlsx
+++ b/OPTIMIZATION/optimization jan 2024 to aug 2025 -gbpusd and eurusd-1h.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\BOTS\REHOBOAM\OPTIMIZATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46AF8BB-47E3-4C9F-B1BC-18750132CB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA33DCBB-2990-4826-9A26-7E32329416F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="1" xr2:uid="{2112105C-1B99-4D4F-85A4-5682E24BD8D2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{2112105C-1B99-4D4F-85A4-5682E24BD8D2}"/>
   </bookViews>
   <sheets>
     <sheet name="PREDICTOR" sheetId="4" r:id="rId1"/>
@@ -1250,8 +1250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8D3A376-5C30-45C0-8A76-1B2BAD76ABFC}">
   <dimension ref="A1:I132"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1600,7 +1600,7 @@
         <v>48</v>
       </c>
       <c r="B26">
-        <v>1.9168918425164101</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1608,7 +1608,7 @@
         <v>49</v>
       </c>
       <c r="B27">
-        <v>1.9264274665800236</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="13" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="B28" s="14">
         <f>B17+(B18*B26)+(B19*B27)+(B20*B26*B26)+(B21*B27*B27)+(B22*B26*B27)</f>
-        <v>4063.7885699801864</v>
+        <v>-145.5055119334404</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
-        <f t="shared" ref="A128:A159" si="3">$B$17+($B$18*B128)+($B$19*C128)+($B$20*B128*B128)+($B$21*C128*C128)+($B$22*B128*C128)</f>
+        <f t="shared" ref="A128:A132" si="3">$B$17+($B$18*B128)+($B$19*C128)+($B$20*B128*B128)+($B$21*C128*C128)+($B$22*B128*C128)</f>
         <v>-88500.892940804668</v>
       </c>
       <c r="B128">
@@ -2869,7 +2869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E0279F-C843-49B4-9FCB-9E222CFD0814}">
   <dimension ref="A1:S149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T1" sqref="T1:T1048576"/>
     </sheetView>
   </sheetViews>
